--- a/static/Models/Classification/Equation/PVT Bank.xlsx
+++ b/static/Models/Classification/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-3.258145570755005</v>
+        <v>-3.255069971084595</v>
       </c>
       <c r="C2">
-        <v>-3.398100852966309</v>
+        <v>-3.401534557342529</v>
       </c>
       <c r="D2">
-        <v>-16.81834030151367</v>
+        <v>-16.58099746704102</v>
       </c>
       <c r="E2">
-        <v>3.601280689239502</v>
+        <v>3.189128637313843</v>
       </c>
       <c r="F2">
-        <v>-1.790456295013428</v>
+        <v>-1.552681088447571</v>
       </c>
       <c r="G2">
-        <v>6.167697429656982</v>
+        <v>6.089251041412354</v>
       </c>
       <c r="H2">
-        <v>2.010593414306641</v>
+        <v>2.715814828872681</v>
       </c>
       <c r="I2">
-        <v>0.5306097865104675</v>
+        <v>0.3330646157264709</v>
       </c>
       <c r="J2">
-        <v>-4.287834167480469</v>
+        <v>-4.46714973449707</v>
       </c>
       <c r="K2">
-        <v>-0.2817702293395996</v>
+        <v>0.03158729150891304</v>
       </c>
       <c r="L2">
-        <v>0.2850993573665619</v>
+        <v>-0.2491012364625931</v>
       </c>
       <c r="M2">
-        <v>-0.01183647289872169</v>
+        <v>-0.2623975574970245</v>
       </c>
       <c r="N2">
-        <v>0.1664454489946365</v>
+        <v>0.2508237659931183</v>
       </c>
       <c r="O2">
-        <v>7.451245307922363</v>
+        <v>7.247165203094482</v>
       </c>
       <c r="P2">
-        <v>0.8752678036689758</v>
+        <v>1.645325064659119</v>
       </c>
       <c r="Q2">
-        <v>12.0979175567627</v>
+        <v>12.1427001953125</v>
       </c>
       <c r="R2">
-        <v>0.5238266587257385</v>
+        <v>0.8629238605499268</v>
       </c>
       <c r="S2">
-        <v>-4.804526805877686</v>
+        <v>-4.664126873016357</v>
       </c>
       <c r="T2">
-        <v>7.537955284118652</v>
+        <v>7.74981689453125</v>
       </c>
       <c r="U2">
-        <v>-5.076930522918701</v>
+        <v>-5.271040916442871</v>
       </c>
       <c r="V2">
-        <v>1.265117049217224</v>
+        <v>1.868036389350891</v>
       </c>
       <c r="W2">
-        <v>-0.6993929147720337</v>
+        <v>-0.8342180848121643</v>
       </c>
       <c r="X2">
-        <v>1.423164963722229</v>
+        <v>1.78821063041687</v>
       </c>
       <c r="Y2">
-        <v>9.722589492797852</v>
+        <v>9.850172996520996</v>
       </c>
       <c r="Z2">
-        <v>-15.83029747009277</v>
+        <v>-15.69191837310791</v>
       </c>
       <c r="AA2">
-        <v>-2.873281478881836</v>
+        <v>-2.38399338722229</v>
       </c>
       <c r="AB2">
-        <v>-17.94364166259766</v>
+        <v>-17.72739601135254</v>
       </c>
       <c r="AC2">
-        <v>2.540021181106567</v>
+        <v>2.600275993347168</v>
       </c>
       <c r="AD2">
-        <v>0.2873111963272095</v>
+        <v>0.3827880620956421</v>
       </c>
       <c r="AE2">
-        <v>-11.73000144958496</v>
+        <v>-11.75366401672363</v>
       </c>
       <c r="AF2">
-        <v>-1.521146059036255</v>
+        <v>-0.7571452260017395</v>
       </c>
       <c r="AG2">
-        <v>-10.11099720001221</v>
+        <v>-9.916820526123047</v>
       </c>
       <c r="AH2">
-        <v>-13.57086944580078</v>
+        <v>-13.72712707519531</v>
       </c>
       <c r="AI2">
-        <v>-1.326529145240784</v>
+        <v>-1.603477835655212</v>
       </c>
       <c r="AJ2">
-        <v>-3.342523574829102</v>
+        <v>-3.014600515365601</v>
       </c>
       <c r="AK2">
-        <v>0.1984301060438156</v>
+        <v>0.3505535125732422</v>
       </c>
       <c r="AL2">
-        <v>-0.750081479549408</v>
+        <v>-0.5497075915336609</v>
       </c>
       <c r="AM2">
-        <v>-1.395773530006409</v>
+        <v>-1.27420699596405</v>
       </c>
       <c r="AN2">
-        <v>2.745757579803467</v>
+        <v>2.955631494522095</v>
       </c>
       <c r="AO2">
-        <v>-10.11880207061768</v>
+        <v>-10.55182838439941</v>
       </c>
       <c r="AP2">
-        <v>6.955173015594482</v>
+        <v>7.15373706817627</v>
       </c>
       <c r="AQ2">
-        <v>0.618772029876709</v>
+        <v>0.5277422070503235</v>
       </c>
       <c r="AR2">
-        <v>-6.169545650482178</v>
+        <v>-6.239630222320557</v>
       </c>
       <c r="AS2">
-        <v>-12.34176349639893</v>
+        <v>-12.18552589416504</v>
       </c>
       <c r="AT2">
-        <v>-8.16407585144043</v>
+        <v>-7.847520351409912</v>
       </c>
       <c r="AU2">
-        <v>-11.07454586029053</v>
+        <v>-10.86038112640381</v>
       </c>
       <c r="AV2">
-        <v>1.362112998962402</v>
+        <v>1.06249988079071</v>
       </c>
       <c r="AW2">
-        <v>-3.412976026535034</v>
+        <v>-3.404797077178955</v>
       </c>
       <c r="AX2">
-        <v>-2.268274068832397</v>
+        <v>-2.919443607330322</v>
       </c>
       <c r="AY2">
-        <v>-4.572638034820557</v>
+        <v>-4.553590774536133</v>
       </c>
       <c r="AZ2">
-        <v>-1.665554642677307</v>
+        <v>-1.817003607749939</v>
       </c>
       <c r="BA2">
-        <v>-4.332821369171143</v>
+        <v>-4.518440723419189</v>
       </c>
       <c r="BB2">
-        <v>-11.00238513946533</v>
+        <v>-11.14364147186279</v>
       </c>
       <c r="BC2">
-        <v>2.287197351455688</v>
+        <v>2.165416479110718</v>
       </c>
       <c r="BD2">
-        <v>-0.1809394061565399</v>
+        <v>-0.2378534972667694</v>
       </c>
       <c r="BE2">
-        <v>2.158774137496948</v>
+        <v>2.134357690811157</v>
       </c>
       <c r="BF2">
-        <v>-7.879091262817383</v>
+        <v>-7.97725248336792</v>
       </c>
       <c r="BG2">
-        <v>1.092854738235474</v>
+        <v>1.161142468452454</v>
       </c>
       <c r="BH2">
-        <v>1.002644896507263</v>
+        <v>0.7734407186508179</v>
       </c>
       <c r="BI2">
-        <v>7.518699645996094</v>
+        <v>7.668241024017334</v>
       </c>
       <c r="BJ2">
-        <v>5.82317066192627</v>
+        <v>5.827629566192627</v>
       </c>
       <c r="BK2">
-        <v>0.7646388411521912</v>
+        <v>0.4846561849117279</v>
       </c>
       <c r="BL2">
-        <v>5.240256786346436</v>
+        <v>5.095900535583496</v>
       </c>
       <c r="BM2">
-        <v>6.676515102386475</v>
+        <v>6.829084873199463</v>
       </c>
       <c r="BN2">
-        <v>-1.041130065917969</v>
+        <v>-1.212951302528381</v>
       </c>
       <c r="BO2">
-        <v>10.40151882171631</v>
+        <v>9.908087730407715</v>
       </c>
       <c r="BP2">
-        <v>-6.306838035583496</v>
+        <v>-6.607612133026123</v>
       </c>
       <c r="BQ2">
-        <v>-5.396379470825195</v>
+        <v>-5.208707809448242</v>
       </c>
       <c r="BR2">
-        <v>-1.036338448524475</v>
+        <v>-1.617560029029846</v>
       </c>
       <c r="BS2">
-        <v>-1.871867418289185</v>
+        <v>-2.046600580215454</v>
       </c>
       <c r="BT2">
-        <v>-1.938666105270386</v>
+        <v>-1.62351381778717</v>
       </c>
       <c r="BU2">
-        <v>1.944186210632324</v>
+        <v>1.815611720085144</v>
       </c>
       <c r="BV2">
-        <v>2.568892240524292</v>
+        <v>2.690452814102173</v>
       </c>
       <c r="BW2">
-        <v>2.048042297363281</v>
+        <v>1.615546584129333</v>
       </c>
       <c r="BX2">
-        <v>-4.272840976715088</v>
+        <v>-4.890119552612305</v>
       </c>
       <c r="BY2">
-        <v>-0.5855558514595032</v>
+        <v>-0.2076927870512009</v>
       </c>
       <c r="BZ2">
-        <v>-1.4030921459198</v>
+        <v>-1.24656081199646</v>
       </c>
       <c r="CA2">
-        <v>3.607568025588989</v>
+        <v>3.801307201385498</v>
       </c>
       <c r="CB2">
-        <v>-14.31000804901123</v>
+        <v>-14.3987865447998</v>
       </c>
       <c r="CC2">
-        <v>-0.7103942632675171</v>
+        <v>-0.5841262340545654</v>
       </c>
       <c r="CD2">
-        <v>1.386929750442505</v>
+        <v>1.915153622627258</v>
       </c>
       <c r="CE2">
-        <v>-14.37467861175537</v>
+        <v>-14.48673629760742</v>
       </c>
       <c r="CF2">
-        <v>-1.676501512527466</v>
+        <v>-2.112571954727173</v>
       </c>
       <c r="CG2">
-        <v>-7.292903423309326</v>
+        <v>-7.067668437957764</v>
       </c>
       <c r="CH2">
-        <v>-12.39359378814697</v>
+        <v>-12.56649780273438</v>
       </c>
       <c r="CI2">
-        <v>-0.4019191861152649</v>
+        <v>-0.2488600164651871</v>
       </c>
       <c r="CJ2">
-        <v>-1.303113579750061</v>
+        <v>-0.6387640237808228</v>
       </c>
       <c r="CK2">
-        <v>0.2609239220619202</v>
+        <v>-0.07753278315067291</v>
       </c>
       <c r="CL2">
-        <v>-0.9846765995025635</v>
+        <v>-1.191194534301758</v>
       </c>
       <c r="CM2">
-        <v>-1.333131194114685</v>
+        <v>-1.176543354988098</v>
       </c>
       <c r="CN2">
-        <v>-2.526948690414429</v>
+        <v>-2.727001905441284</v>
       </c>
       <c r="CO2">
-        <v>-1.010340690612793</v>
+        <v>-0.8782243132591248</v>
       </c>
       <c r="CP2">
-        <v>3.239146947860718</v>
+        <v>3.419634819030762</v>
       </c>
       <c r="CQ2">
-        <v>7.794065952301025</v>
+        <v>7.810163497924805</v>
       </c>
       <c r="CR2">
-        <v>1.756985783576965</v>
+        <v>1.680178999900818</v>
       </c>
       <c r="CS2">
-        <v>-3.185410022735596</v>
+        <v>-3.075804233551025</v>
       </c>
       <c r="CT2">
-        <v>0.05542003363370895</v>
+        <v>0.04475348815321922</v>
       </c>
       <c r="CU2">
-        <v>1.885761141777039</v>
+        <v>1.777347683906555</v>
       </c>
       <c r="CV2">
-        <v>0.6752738952636719</v>
+        <v>0.5829487442970276</v>
       </c>
       <c r="CW2">
-        <v>-2.853657960891724</v>
+        <v>-2.522396564483643</v>
       </c>
       <c r="CX2">
-        <v>5.056260108947754</v>
+        <v>5.034962177276611</v>
       </c>
       <c r="CY2">
-        <v>2.918015718460083</v>
+        <v>2.982321500778198</v>
       </c>
       <c r="CZ2">
-        <v>1.162015914916992</v>
+        <v>1.400028109550476</v>
       </c>
       <c r="DA2">
-        <v>-2.095390319824219</v>
+        <v>-2.779881477355957</v>
       </c>
       <c r="DB2">
-        <v>-5.87794828414917</v>
+        <v>-5.491851806640625</v>
       </c>
       <c r="DC2">
-        <v>0.1688510477542877</v>
+        <v>-0.03164581581950188</v>
       </c>
       <c r="DD2">
-        <v>-4.695409297943115</v>
+        <v>-5.193500518798828</v>
       </c>
       <c r="DE2">
-        <v>-0.3601100742816925</v>
+        <v>-0.2588351666927338</v>
       </c>
       <c r="DF2">
-        <v>13.0175256729126</v>
+        <v>13.05215835571289</v>
       </c>
       <c r="DG2">
-        <v>-0.1104511842131615</v>
+        <v>-0.9694246053695679</v>
       </c>
       <c r="DH2">
-        <v>10.07410907745361</v>
+        <v>10.14815902709961</v>
       </c>
       <c r="DI2">
-        <v>1.181057453155518</v>
+        <v>1.645203113555908</v>
       </c>
       <c r="DJ2">
-        <v>-6.380725860595703</v>
+        <v>-6.205348491668701</v>
       </c>
       <c r="DK2">
-        <v>4.179684638977051</v>
+        <v>3.932023286819458</v>
       </c>
       <c r="DL2">
-        <v>7.753201007843018</v>
+        <v>8.050937652587891</v>
       </c>
       <c r="DM2">
-        <v>2.444319486618042</v>
+        <v>2.273602247238159</v>
       </c>
       <c r="DN2">
-        <v>0.3371614515781403</v>
+        <v>0.4435354173183441</v>
       </c>
       <c r="DO2">
-        <v>-8.043397903442383</v>
+        <v>-7.390580177307129</v>
       </c>
       <c r="DP2">
-        <v>-0.7307676672935486</v>
+        <v>-0.9956115484237671</v>
       </c>
       <c r="DQ2">
-        <v>0.1166476085782051</v>
+        <v>0.2230067253112793</v>
       </c>
       <c r="DR2">
-        <v>1.494107246398926</v>
+        <v>2.211376428604126</v>
       </c>
       <c r="DS2">
-        <v>-1.103619575500488</v>
+        <v>-1.029123783111572</v>
       </c>
       <c r="DT2">
-        <v>10.0216817855835</v>
+        <v>9.884896278381348</v>
       </c>
       <c r="DU2">
-        <v>11.38754367828369</v>
+        <v>11.40632915496826</v>
       </c>
       <c r="DV2">
-        <v>-1.269713878631592</v>
+        <v>-0.8446162939071655</v>
       </c>
       <c r="DW2">
-        <v>-1.187806725502014</v>
+        <v>-1.722953796386719</v>
       </c>
       <c r="DX2">
-        <v>0.644375741481781</v>
+        <v>0.7491500377655029</v>
       </c>
       <c r="DY2">
-        <v>-13.34251880645752</v>
+        <v>-12.53550052642822</v>
       </c>
       <c r="DZ2">
-        <v>0.7952715754508972</v>
+        <v>0.9422898888587952</v>
       </c>
       <c r="EA2">
-        <v>2.500824928283691</v>
+        <v>3.334904432296753</v>
       </c>
       <c r="EB2">
-        <v>-0.4740234017372131</v>
+        <v>-0.459114134311676</v>
       </c>
       <c r="EC2">
-        <v>2.357973098754883</v>
+        <v>2.380485057830811</v>
       </c>
       <c r="ED2">
-        <v>6.841310977935791</v>
+        <v>6.8464674949646</v>
       </c>
       <c r="EE2">
-        <v>0.9847586154937744</v>
+        <v>0.9566290378570557</v>
       </c>
       <c r="EF2">
-        <v>11.2254467010498</v>
+        <v>10.71617603302002</v>
       </c>
       <c r="EG2">
-        <v>-4.252251148223877</v>
+        <v>-4.389457702636719</v>
       </c>
       <c r="EH2">
-        <v>-18.63789367675781</v>
+        <v>-19.08089828491211</v>
       </c>
       <c r="EI2">
-        <v>2.448585510253906</v>
+        <v>2.516923189163208</v>
       </c>
       <c r="EJ2">
-        <v>2.759210348129272</v>
+        <v>2.79620361328125</v>
       </c>
       <c r="EK2">
-        <v>2.041300058364868</v>
+        <v>1.862874746322632</v>
       </c>
       <c r="EL2">
-        <v>-2.518707275390625</v>
+        <v>-2.36994743347168</v>
       </c>
       <c r="EM2">
-        <v>13.6830358505249</v>
+        <v>13.24258708953857</v>
       </c>
       <c r="EN2">
-        <v>1.619202375411987</v>
+        <v>1.753242135047913</v>
       </c>
       <c r="EO2">
-        <v>-0.5719128251075745</v>
+        <v>-0.846162736415863</v>
       </c>
       <c r="EP2">
-        <v>4.069737434387207</v>
+        <v>3.357110261917114</v>
       </c>
       <c r="EQ2">
-        <v>2.077439546585083</v>
+        <v>1.936738729476929</v>
       </c>
       <c r="ER2">
-        <v>-3.515493869781494</v>
+        <v>-4.138457298278809</v>
       </c>
       <c r="ES2">
-        <v>-6.966976165771484</v>
+        <v>-7.021378993988037</v>
       </c>
       <c r="ET2">
-        <v>3.408704519271851</v>
+        <v>4.162600994110107</v>
       </c>
       <c r="EU2">
-        <v>-10.20442485809326</v>
+        <v>-10.22141265869141</v>
       </c>
       <c r="EV2">
-        <v>-3.410029172897339</v>
+        <v>-3.388097524642944</v>
       </c>
       <c r="EW2">
-        <v>0.6517645716667175</v>
+        <v>1.072335720062256</v>
       </c>
       <c r="EX2">
-        <v>-2.587060928344727</v>
+        <v>-3.20363712310791</v>
       </c>
       <c r="EY2">
-        <v>-3.199189186096191</v>
+        <v>-3.299905061721802</v>
       </c>
       <c r="EZ2">
-        <v>-11.02300643920898</v>
+        <v>-10.08123397827148</v>
       </c>
       <c r="FA2">
-        <v>0.9330220222473145</v>
+        <v>0.935719907283783</v>
       </c>
       <c r="FB2">
-        <v>0.2037807106971741</v>
+        <v>0.4771535098552704</v>
       </c>
       <c r="FC2">
-        <v>10.29202270507812</v>
+        <v>9.983067512512207</v>
       </c>
       <c r="FD2">
-        <v>-0.5068148374557495</v>
+        <v>-0.1552576422691345</v>
       </c>
       <c r="FE2">
-        <v>-3.440918684005737</v>
+        <v>-3.540013313293457</v>
       </c>
       <c r="FF2">
-        <v>2.902398824691772</v>
+        <v>3.082352638244629</v>
       </c>
       <c r="FG2">
-        <v>-13.76471042633057</v>
+        <v>-13.77845573425293</v>
       </c>
       <c r="FH2">
-        <v>0.3404939770698547</v>
+        <v>0.4383344352245331</v>
       </c>
       <c r="FI2">
-        <v>5.298385620117188</v>
+        <v>5.220557689666748</v>
       </c>
       <c r="FJ2">
-        <v>8.733120918273926</v>
+        <v>9.145810127258301</v>
       </c>
       <c r="FK2">
-        <v>1.292042970657349</v>
+        <v>0.8089814186096191</v>
       </c>
       <c r="FL2">
-        <v>-3.903451919555664</v>
+        <v>-3.387946844100952</v>
       </c>
       <c r="FM2">
-        <v>6.501469135284424</v>
+        <v>6.53164005279541</v>
       </c>
       <c r="FN2">
-        <v>9.944783210754395</v>
+        <v>9.556540489196777</v>
       </c>
       <c r="FO2">
-        <v>-1.146905899047852</v>
+        <v>-0.9072930216789246</v>
       </c>
       <c r="FP2">
-        <v>0.9492039084434509</v>
+        <v>1.071429252624512</v>
       </c>
       <c r="FQ2">
-        <v>-0.4890652894973755</v>
+        <v>-0.3747967183589935</v>
       </c>
       <c r="FR2">
-        <v>1.628199577331543</v>
+        <v>1.876350283622742</v>
       </c>
       <c r="FS2">
-        <v>-0.06909458339214325</v>
+        <v>-0.1976120322942734</v>
       </c>
       <c r="FT2">
-        <v>-1.512010335922241</v>
+        <v>-1.347056865692139</v>
       </c>
       <c r="FU2">
-        <v>7.193499088287354</v>
+        <v>7.246417999267578</v>
       </c>
       <c r="FV2">
-        <v>1.974011421203613</v>
+        <v>1.771505832672119</v>
       </c>
       <c r="FW2">
-        <v>-0.6279790997505188</v>
+        <v>-0.6940300464630127</v>
       </c>
       <c r="FX2">
-        <v>-0.1258740276098251</v>
+        <v>0.0223391018807888</v>
       </c>
       <c r="FY2">
-        <v>-0.3783906996250153</v>
+        <v>-0.8051030039787292</v>
       </c>
       <c r="FZ2">
-        <v>1.535153031349182</v>
+        <v>1.326689124107361</v>
       </c>
       <c r="GA2">
-        <v>5.658259391784668</v>
+        <v>6.059604644775391</v>
       </c>
       <c r="GB2">
-        <v>0.3810302317142487</v>
+        <v>0.5071679949760437</v>
       </c>
       <c r="GC2">
-        <v>-2.333796262741089</v>
+        <v>-2.607624053955078</v>
       </c>
       <c r="GD2">
-        <v>-0.2361471652984619</v>
+        <v>0.3493262529373169</v>
       </c>
       <c r="GE2">
-        <v>1.592526793479919</v>
+        <v>1.783655881881714</v>
       </c>
       <c r="GF2">
-        <v>1.649292945861816</v>
+        <v>1.301192283630371</v>
       </c>
       <c r="GG2">
-        <v>-12.44048309326172</v>
+        <v>-12.81668472290039</v>
       </c>
       <c r="GH2">
-        <v>-2.62424373626709</v>
+        <v>-2.598861932754517</v>
       </c>
       <c r="GI2">
-        <v>-1.283615231513977</v>
+        <v>-0.5395002365112305</v>
       </c>
       <c r="GJ2">
-        <v>1.495936393737793</v>
+        <v>1.169553995132446</v>
       </c>
       <c r="GK2">
-        <v>13.04645252227783</v>
+        <v>13.30433177947998</v>
       </c>
       <c r="GL2">
-        <v>-2.746826887130737</v>
+        <v>-3.50011157989502</v>
       </c>
       <c r="GM2">
-        <v>-9.021105766296387</v>
+        <v>-8.89784049987793</v>
       </c>
       <c r="GN2">
-        <v>-3.225333690643311</v>
+        <v>-3.254692554473877</v>
       </c>
       <c r="GO2">
-        <v>2.38155722618103</v>
+        <v>2.409131050109863</v>
       </c>
       <c r="GP2">
-        <v>-0.5171051621437073</v>
+        <v>-0.5320210456848145</v>
       </c>
       <c r="GQ2">
-        <v>-0.9172345995903015</v>
+        <v>-1.601907849311829</v>
       </c>
       <c r="GR2">
-        <v>1.122799515724182</v>
+        <v>1.409059405326843</v>
       </c>
       <c r="GS2">
-        <v>-3.989002704620361</v>
+        <v>-4.284500598907471</v>
       </c>
       <c r="GT2">
-        <v>1.373570442199707</v>
+        <v>1.083202719688416</v>
       </c>
       <c r="GU2">
-        <v>-7.50225305557251</v>
+        <v>-7.672072410583496</v>
       </c>
       <c r="GV2">
-        <v>0.2722476124763489</v>
+        <v>0.2455394119024277</v>
       </c>
       <c r="GW2">
-        <v>-0.7245339155197144</v>
+        <v>0.05997713655233383</v>
       </c>
       <c r="GX2">
-        <v>-0.5840500593185425</v>
+        <v>-0.4250988960266113</v>
       </c>
       <c r="GY2">
-        <v>1.474153757095337</v>
+        <v>1.491183042526245</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PVT Bank.xlsx
+++ b/static/Models/Classification/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-3.255069971084595</v>
+        <v>-2.82248592376709</v>
       </c>
       <c r="C2">
-        <v>-3.401534557342529</v>
+        <v>-3.750780820846558</v>
       </c>
       <c r="D2">
-        <v>-16.58099746704102</v>
+        <v>-16.61272621154785</v>
       </c>
       <c r="E2">
-        <v>3.189128637313843</v>
+        <v>2.767709970474243</v>
       </c>
       <c r="F2">
-        <v>-1.552681088447571</v>
+        <v>-1.239820241928101</v>
       </c>
       <c r="G2">
-        <v>6.089251041412354</v>
+        <v>6.382772922515869</v>
       </c>
       <c r="H2">
-        <v>2.715814828872681</v>
+        <v>2.1586754322052</v>
       </c>
       <c r="I2">
-        <v>0.3330646157264709</v>
+        <v>0.05868050828576088</v>
       </c>
       <c r="J2">
-        <v>-4.46714973449707</v>
+        <v>-4.803088665008545</v>
       </c>
       <c r="K2">
-        <v>0.03158729150891304</v>
+        <v>0.5021477937698364</v>
       </c>
       <c r="L2">
-        <v>-0.2491012364625931</v>
+        <v>-0.8712383508682251</v>
       </c>
       <c r="M2">
-        <v>-0.2623975574970245</v>
+        <v>0.2099266350269318</v>
       </c>
       <c r="N2">
-        <v>0.2508237659931183</v>
+        <v>0.008261717855930328</v>
       </c>
       <c r="O2">
-        <v>7.247165203094482</v>
+        <v>7.263327598571777</v>
       </c>
       <c r="P2">
-        <v>1.645325064659119</v>
+        <v>1.370137691497803</v>
       </c>
       <c r="Q2">
-        <v>12.1427001953125</v>
+        <v>12.07583236694336</v>
       </c>
       <c r="R2">
-        <v>0.8629238605499268</v>
+        <v>0.08651024103164673</v>
       </c>
       <c r="S2">
-        <v>-4.664126873016357</v>
+        <v>-5.135995388031006</v>
       </c>
       <c r="T2">
-        <v>7.74981689453125</v>
+        <v>7.225496292114258</v>
       </c>
       <c r="U2">
-        <v>-5.271040916442871</v>
+        <v>-5.03466796875</v>
       </c>
       <c r="V2">
-        <v>1.868036389350891</v>
+        <v>1.180633306503296</v>
       </c>
       <c r="W2">
-        <v>-0.8342180848121643</v>
+        <v>-0.03194034099578857</v>
       </c>
       <c r="X2">
-        <v>1.78821063041687</v>
+        <v>2.261571884155273</v>
       </c>
       <c r="Y2">
-        <v>9.850172996520996</v>
+        <v>9.96131420135498</v>
       </c>
       <c r="Z2">
-        <v>-15.69191837310791</v>
+        <v>-15.78891277313232</v>
       </c>
       <c r="AA2">
-        <v>-2.38399338722229</v>
+        <v>-1.711140155792236</v>
       </c>
       <c r="AB2">
-        <v>-17.72739601135254</v>
+        <v>-17.02031135559082</v>
       </c>
       <c r="AC2">
-        <v>2.600275993347168</v>
+        <v>3.158506393432617</v>
       </c>
       <c r="AD2">
-        <v>0.3827880620956421</v>
+        <v>-0.2371136397123337</v>
       </c>
       <c r="AE2">
-        <v>-11.75366401672363</v>
+        <v>-11.16928100585938</v>
       </c>
       <c r="AF2">
-        <v>-0.7571452260017395</v>
+        <v>-0.2244935482740402</v>
       </c>
       <c r="AG2">
-        <v>-9.916820526123047</v>
+        <v>-9.641425132751465</v>
       </c>
       <c r="AH2">
-        <v>-13.72712707519531</v>
+        <v>-13.40077590942383</v>
       </c>
       <c r="AI2">
-        <v>-1.603477835655212</v>
+        <v>-0.885657787322998</v>
       </c>
       <c r="AJ2">
-        <v>-3.014600515365601</v>
+        <v>-3.122485160827637</v>
       </c>
       <c r="AK2">
-        <v>0.3505535125732422</v>
+        <v>0.8204557299613953</v>
       </c>
       <c r="AL2">
-        <v>-0.5497075915336609</v>
+        <v>-1.149002909660339</v>
       </c>
       <c r="AM2">
-        <v>-1.27420699596405</v>
+        <v>-0.7005286812782288</v>
       </c>
       <c r="AN2">
-        <v>2.955631494522095</v>
+        <v>3.096086263656616</v>
       </c>
       <c r="AO2">
-        <v>-10.55182838439941</v>
+        <v>-10.7702751159668</v>
       </c>
       <c r="AP2">
-        <v>7.15373706817627</v>
+        <v>6.597562789916992</v>
       </c>
       <c r="AQ2">
-        <v>0.5277422070503235</v>
+        <v>1.151066780090332</v>
       </c>
       <c r="AR2">
-        <v>-6.239630222320557</v>
+        <v>-6.11220645904541</v>
       </c>
       <c r="AS2">
-        <v>-12.18552589416504</v>
+        <v>-11.82268619537354</v>
       </c>
       <c r="AT2">
-        <v>-7.847520351409912</v>
+        <v>-7.361270427703857</v>
       </c>
       <c r="AU2">
-        <v>-10.86038112640381</v>
+        <v>-10.66184234619141</v>
       </c>
       <c r="AV2">
-        <v>1.06249988079071</v>
+        <v>0.3053263425827026</v>
       </c>
       <c r="AW2">
-        <v>-3.404797077178955</v>
+        <v>-2.860939979553223</v>
       </c>
       <c r="AX2">
-        <v>-2.919443607330322</v>
+        <v>-2.775305509567261</v>
       </c>
       <c r="AY2">
-        <v>-4.553590774536133</v>
+        <v>-3.850445747375488</v>
       </c>
       <c r="AZ2">
-        <v>-1.817003607749939</v>
+        <v>-1.102446317672729</v>
       </c>
       <c r="BA2">
-        <v>-4.518440723419189</v>
+        <v>-5.02880859375</v>
       </c>
       <c r="BB2">
-        <v>-11.14364147186279</v>
+        <v>-11.51856136322021</v>
       </c>
       <c r="BC2">
-        <v>2.165416479110718</v>
+        <v>1.740627408027649</v>
       </c>
       <c r="BD2">
-        <v>-0.2378534972667694</v>
+        <v>-0.8979752063751221</v>
       </c>
       <c r="BE2">
-        <v>2.134357690811157</v>
+        <v>2.157722949981689</v>
       </c>
       <c r="BF2">
-        <v>-7.97725248336792</v>
+        <v>-8.449066162109375</v>
       </c>
       <c r="BG2">
-        <v>1.161142468452454</v>
+        <v>0.5031880736351013</v>
       </c>
       <c r="BH2">
-        <v>0.7734407186508179</v>
+        <v>1.603754997253418</v>
       </c>
       <c r="BI2">
-        <v>7.668241024017334</v>
+        <v>7.092117309570312</v>
       </c>
       <c r="BJ2">
-        <v>5.827629566192627</v>
+        <v>6.435878753662109</v>
       </c>
       <c r="BK2">
-        <v>0.4846561849117279</v>
+        <v>0.1069576293230057</v>
       </c>
       <c r="BL2">
-        <v>5.095900535583496</v>
+        <v>5.592057228088379</v>
       </c>
       <c r="BM2">
-        <v>6.829084873199463</v>
+        <v>6.287857055664062</v>
       </c>
       <c r="BN2">
-        <v>-1.212951302528381</v>
+        <v>-1.096232652664185</v>
       </c>
       <c r="BO2">
-        <v>9.908087730407715</v>
+        <v>9.132364273071289</v>
       </c>
       <c r="BP2">
-        <v>-6.607612133026123</v>
+        <v>-5.991603374481201</v>
       </c>
       <c r="BQ2">
-        <v>-5.208707809448242</v>
+        <v>-4.661420822143555</v>
       </c>
       <c r="BR2">
-        <v>-1.617560029029846</v>
+        <v>-0.8721425533294678</v>
       </c>
       <c r="BS2">
-        <v>-2.046600580215454</v>
+        <v>-1.263525485992432</v>
       </c>
       <c r="BT2">
-        <v>-1.62351381778717</v>
+        <v>-0.9438540935516357</v>
       </c>
       <c r="BU2">
-        <v>1.815611720085144</v>
+        <v>1.131502151489258</v>
       </c>
       <c r="BV2">
-        <v>2.690452814102173</v>
+        <v>3.065186023712158</v>
       </c>
       <c r="BW2">
-        <v>1.615546584129333</v>
+        <v>1.207463979721069</v>
       </c>
       <c r="BX2">
-        <v>-4.890119552612305</v>
+        <v>-4.85770845413208</v>
       </c>
       <c r="BY2">
-        <v>-0.2076927870512009</v>
+        <v>0.5713772177696228</v>
       </c>
       <c r="BZ2">
-        <v>-1.24656081199646</v>
+        <v>-1.260843634605408</v>
       </c>
       <c r="CA2">
-        <v>3.801307201385498</v>
+        <v>4.374191284179688</v>
       </c>
       <c r="CB2">
-        <v>-14.3987865447998</v>
+        <v>-14.36690711975098</v>
       </c>
       <c r="CC2">
-        <v>-0.5841262340545654</v>
+        <v>-1.181299686431885</v>
       </c>
       <c r="CD2">
-        <v>1.915153622627258</v>
+        <v>1.623615264892578</v>
       </c>
       <c r="CE2">
-        <v>-14.48673629760742</v>
+        <v>-14.88517761230469</v>
       </c>
       <c r="CF2">
-        <v>-2.112571954727173</v>
+        <v>-1.728119730949402</v>
       </c>
       <c r="CG2">
-        <v>-7.067668437957764</v>
+        <v>-7.87382173538208</v>
       </c>
       <c r="CH2">
-        <v>-12.56649780273438</v>
+        <v>-12.16677665710449</v>
       </c>
       <c r="CI2">
-        <v>-0.2488600164651871</v>
+        <v>-0.8611857295036316</v>
       </c>
       <c r="CJ2">
-        <v>-0.6387640237808228</v>
+        <v>-0.9819070100784302</v>
       </c>
       <c r="CK2">
-        <v>-0.07753278315067291</v>
+        <v>-0.9133506417274475</v>
       </c>
       <c r="CL2">
-        <v>-1.191194534301758</v>
+        <v>-1.776157855987549</v>
       </c>
       <c r="CM2">
-        <v>-1.176543354988098</v>
+        <v>-1.423898339271545</v>
       </c>
       <c r="CN2">
-        <v>-2.727001905441284</v>
+        <v>-2.086902856826782</v>
       </c>
       <c r="CO2">
-        <v>-0.8782243132591248</v>
+        <v>-1.487128853797913</v>
       </c>
       <c r="CP2">
-        <v>3.419634819030762</v>
+        <v>2.825915336608887</v>
       </c>
       <c r="CQ2">
-        <v>7.810163497924805</v>
+        <v>6.992717742919922</v>
       </c>
       <c r="CR2">
-        <v>1.680178999900818</v>
+        <v>1.310901165008545</v>
       </c>
       <c r="CS2">
-        <v>-3.075804233551025</v>
+        <v>-3.656654357910156</v>
       </c>
       <c r="CT2">
-        <v>0.04475348815321922</v>
+        <v>-0.5631859302520752</v>
       </c>
       <c r="CU2">
-        <v>1.777347683906555</v>
+        <v>0.9328272938728333</v>
       </c>
       <c r="CV2">
-        <v>0.5829487442970276</v>
+        <v>-0.1287340521812439</v>
       </c>
       <c r="CW2">
-        <v>-2.522396564483643</v>
+        <v>-3.193333148956299</v>
       </c>
       <c r="CX2">
-        <v>5.034962177276611</v>
+        <v>5.124902248382568</v>
       </c>
       <c r="CY2">
-        <v>2.982321500778198</v>
+        <v>3.530833959579468</v>
       </c>
       <c r="CZ2">
-        <v>1.400028109550476</v>
+        <v>2.118983745574951</v>
       </c>
       <c r="DA2">
-        <v>-2.779881477355957</v>
+        <v>-2.942192316055298</v>
       </c>
       <c r="DB2">
-        <v>-5.491851806640625</v>
+        <v>-4.769284725189209</v>
       </c>
       <c r="DC2">
-        <v>-0.03164581581950188</v>
+        <v>-0.2185452580451965</v>
       </c>
       <c r="DD2">
-        <v>-5.193500518798828</v>
+        <v>-4.77577543258667</v>
       </c>
       <c r="DE2">
-        <v>-0.2588351666927338</v>
+        <v>-0.8090339303016663</v>
       </c>
       <c r="DF2">
-        <v>13.05215835571289</v>
+        <v>13.65415382385254</v>
       </c>
       <c r="DG2">
-        <v>-0.9694246053695679</v>
+        <v>-0.4193336367607117</v>
       </c>
       <c r="DH2">
-        <v>10.14815902709961</v>
+        <v>9.750979423522949</v>
       </c>
       <c r="DI2">
-        <v>1.645203113555908</v>
+        <v>2.326590061187744</v>
       </c>
       <c r="DJ2">
-        <v>-6.205348491668701</v>
+        <v>-6.62701416015625</v>
       </c>
       <c r="DK2">
-        <v>3.932023286819458</v>
+        <v>4.162189483642578</v>
       </c>
       <c r="DL2">
-        <v>8.050937652587891</v>
+        <v>7.488772869110107</v>
       </c>
       <c r="DM2">
-        <v>2.273602247238159</v>
+        <v>3.036414623260498</v>
       </c>
       <c r="DN2">
-        <v>0.4435354173183441</v>
+        <v>-0.1989952921867371</v>
       </c>
       <c r="DO2">
-        <v>-7.390580177307129</v>
+        <v>-7.190643787384033</v>
       </c>
       <c r="DP2">
-        <v>-0.9956115484237671</v>
+        <v>-0.7166799902915955</v>
       </c>
       <c r="DQ2">
-        <v>0.2230067253112793</v>
+        <v>-0.3042083978652954</v>
       </c>
       <c r="DR2">
-        <v>2.211376428604126</v>
+        <v>1.923485994338989</v>
       </c>
       <c r="DS2">
-        <v>-1.029123783111572</v>
+        <v>-0.4757143259048462</v>
       </c>
       <c r="DT2">
-        <v>9.884896278381348</v>
+        <v>9.942066192626953</v>
       </c>
       <c r="DU2">
-        <v>11.40632915496826</v>
+        <v>11.54990386962891</v>
       </c>
       <c r="DV2">
-        <v>-0.8446162939071655</v>
+        <v>-0.6248805522918701</v>
       </c>
       <c r="DW2">
-        <v>-1.722953796386719</v>
+        <v>-2.324398040771484</v>
       </c>
       <c r="DX2">
-        <v>0.7491500377655029</v>
+        <v>0.1063412055373192</v>
       </c>
       <c r="DY2">
-        <v>-12.53550052642822</v>
+        <v>-12.2899694442749</v>
       </c>
       <c r="DZ2">
-        <v>0.9422898888587952</v>
+        <v>1.304629564285278</v>
       </c>
       <c r="EA2">
-        <v>3.334904432296753</v>
+        <v>3.244232892990112</v>
       </c>
       <c r="EB2">
-        <v>-0.459114134311676</v>
+        <v>-1.099680781364441</v>
       </c>
       <c r="EC2">
-        <v>2.380485057830811</v>
+        <v>1.659108877182007</v>
       </c>
       <c r="ED2">
-        <v>6.8464674949646</v>
+        <v>6.328318119049072</v>
       </c>
       <c r="EE2">
-        <v>0.9566290378570557</v>
+        <v>0.481934666633606</v>
       </c>
       <c r="EF2">
-        <v>10.71617603302002</v>
+        <v>10.64659214019775</v>
       </c>
       <c r="EG2">
-        <v>-4.389457702636719</v>
+        <v>-3.620965480804443</v>
       </c>
       <c r="EH2">
-        <v>-19.08089828491211</v>
+        <v>-19.07378387451172</v>
       </c>
       <c r="EI2">
-        <v>2.516923189163208</v>
+        <v>2.5491623878479</v>
       </c>
       <c r="EJ2">
-        <v>2.79620361328125</v>
+        <v>2.402305126190186</v>
       </c>
       <c r="EK2">
-        <v>1.862874746322632</v>
+        <v>1.337146878242493</v>
       </c>
       <c r="EL2">
-        <v>-2.36994743347168</v>
+        <v>-2.963549375534058</v>
       </c>
       <c r="EM2">
-        <v>13.24258708953857</v>
+        <v>13.00872707366943</v>
       </c>
       <c r="EN2">
-        <v>1.753242135047913</v>
+        <v>1.544718742370605</v>
       </c>
       <c r="EO2">
-        <v>-0.846162736415863</v>
+        <v>-1.695659995079041</v>
       </c>
       <c r="EP2">
-        <v>3.357110261917114</v>
+        <v>3.334625959396362</v>
       </c>
       <c r="EQ2">
-        <v>1.936738729476929</v>
+        <v>1.503817677497864</v>
       </c>
       <c r="ER2">
-        <v>-4.138457298278809</v>
+        <v>-3.450333833694458</v>
       </c>
       <c r="ES2">
-        <v>-7.021378993988037</v>
+        <v>-6.809232234954834</v>
       </c>
       <c r="ET2">
-        <v>4.162600994110107</v>
+        <v>4.432780742645264</v>
       </c>
       <c r="EU2">
-        <v>-10.22141265869141</v>
+        <v>-9.385213851928711</v>
       </c>
       <c r="EV2">
-        <v>-3.388097524642944</v>
+        <v>-2.970224380493164</v>
       </c>
       <c r="EW2">
-        <v>1.072335720062256</v>
+        <v>1.526233434677124</v>
       </c>
       <c r="EX2">
-        <v>-3.20363712310791</v>
+        <v>-2.822429418563843</v>
       </c>
       <c r="EY2">
-        <v>-3.299905061721802</v>
+        <v>-3.865172863006592</v>
       </c>
       <c r="EZ2">
-        <v>-10.08123397827148</v>
+        <v>-10.00416088104248</v>
       </c>
       <c r="FA2">
-        <v>0.935719907283783</v>
+        <v>1.595523357391357</v>
       </c>
       <c r="FB2">
-        <v>0.4771535098552704</v>
+        <v>-0.02414740808308125</v>
       </c>
       <c r="FC2">
-        <v>9.983067512512207</v>
+        <v>9.792060852050781</v>
       </c>
       <c r="FD2">
-        <v>-0.1552576422691345</v>
+        <v>0.4837201535701752</v>
       </c>
       <c r="FE2">
-        <v>-3.540013313293457</v>
+        <v>-2.856208086013794</v>
       </c>
       <c r="FF2">
-        <v>3.082352638244629</v>
+        <v>2.591197729110718</v>
       </c>
       <c r="FG2">
-        <v>-13.77845573425293</v>
+        <v>-13.82260799407959</v>
       </c>
       <c r="FH2">
-        <v>0.4383344352245331</v>
+        <v>-0.2641524970531464</v>
       </c>
       <c r="FI2">
-        <v>5.220557689666748</v>
+        <v>5.600177764892578</v>
       </c>
       <c r="FJ2">
-        <v>9.145810127258301</v>
+        <v>8.893886566162109</v>
       </c>
       <c r="FK2">
-        <v>0.8089814186096191</v>
+        <v>0.5334150195121765</v>
       </c>
       <c r="FL2">
-        <v>-3.387946844100952</v>
+        <v>-2.792220830917358</v>
       </c>
       <c r="FM2">
-        <v>6.53164005279541</v>
+        <v>6.755305290222168</v>
       </c>
       <c r="FN2">
-        <v>9.556540489196777</v>
+        <v>10.14376640319824</v>
       </c>
       <c r="FO2">
-        <v>-0.9072930216789246</v>
+        <v>-0.5746540427207947</v>
       </c>
       <c r="FP2">
-        <v>1.071429252624512</v>
+        <v>1.732102990150452</v>
       </c>
       <c r="FQ2">
-        <v>-0.3747967183589935</v>
+        <v>-0.9838463664054871</v>
       </c>
       <c r="FR2">
-        <v>1.876350283622742</v>
+        <v>1.375062584877014</v>
       </c>
       <c r="FS2">
-        <v>-0.1976120322942734</v>
+        <v>-0.8442211747169495</v>
       </c>
       <c r="FT2">
-        <v>-1.347056865692139</v>
+        <v>-1.898894309997559</v>
       </c>
       <c r="FU2">
-        <v>7.246417999267578</v>
+        <v>6.680071353912354</v>
       </c>
       <c r="FV2">
-        <v>1.771505832672119</v>
+        <v>1.008676648139954</v>
       </c>
       <c r="FW2">
-        <v>-0.6940300464630127</v>
+        <v>-1.16266918182373</v>
       </c>
       <c r="FX2">
-        <v>0.0223391018807888</v>
+        <v>0.2617650628089905</v>
       </c>
       <c r="FY2">
-        <v>-0.8051030039787292</v>
+        <v>-0.3249282240867615</v>
       </c>
       <c r="FZ2">
-        <v>1.326689124107361</v>
+        <v>1.728858232498169</v>
       </c>
       <c r="GA2">
-        <v>6.059604644775391</v>
+        <v>5.677328109741211</v>
       </c>
       <c r="GB2">
-        <v>0.5071679949760437</v>
+        <v>0.4900917410850525</v>
       </c>
       <c r="GC2">
-        <v>-2.607624053955078</v>
+        <v>-2.388630867004395</v>
       </c>
       <c r="GD2">
-        <v>0.3493262529373169</v>
+        <v>-0.3386757075786591</v>
       </c>
       <c r="GE2">
-        <v>1.783655881881714</v>
+        <v>1.214915752410889</v>
       </c>
       <c r="GF2">
-        <v>1.301192283630371</v>
+        <v>1.346992373466492</v>
       </c>
       <c r="GG2">
-        <v>-12.81668472290039</v>
+        <v>-12.60761260986328</v>
       </c>
       <c r="GH2">
-        <v>-2.598861932754517</v>
+        <v>-1.752816438674927</v>
       </c>
       <c r="GI2">
-        <v>-0.5395002365112305</v>
+        <v>0.1333079636096954</v>
       </c>
       <c r="GJ2">
-        <v>1.169553995132446</v>
+        <v>0.51414954662323</v>
       </c>
       <c r="GK2">
-        <v>13.30433177947998</v>
+        <v>12.8682222366333</v>
       </c>
       <c r="GL2">
-        <v>-3.50011157989502</v>
+        <v>-3.513765573501587</v>
       </c>
       <c r="GM2">
-        <v>-8.89784049987793</v>
+        <v>-9.467268943786621</v>
       </c>
       <c r="GN2">
-        <v>-3.254692554473877</v>
+        <v>-2.632064580917358</v>
       </c>
       <c r="GO2">
-        <v>2.409131050109863</v>
+        <v>2.722569704055786</v>
       </c>
       <c r="GP2">
-        <v>-0.5320210456848145</v>
+        <v>-1.20470404624939</v>
       </c>
       <c r="GQ2">
-        <v>-1.601907849311829</v>
+        <v>-0.9998410940170288</v>
       </c>
       <c r="GR2">
-        <v>1.409059405326843</v>
+        <v>1.01506233215332</v>
       </c>
       <c r="GS2">
-        <v>-4.284500598907471</v>
+        <v>-4.047878742218018</v>
       </c>
       <c r="GT2">
-        <v>1.083202719688416</v>
+        <v>1.586872339248657</v>
       </c>
       <c r="GU2">
-        <v>-7.672072410583496</v>
+        <v>-7.142956256866455</v>
       </c>
       <c r="GV2">
-        <v>0.2455394119024277</v>
+        <v>-0.1480348259210587</v>
       </c>
       <c r="GW2">
-        <v>0.05997713655233383</v>
+        <v>0.7920420169830322</v>
       </c>
       <c r="GX2">
-        <v>-0.4250988960266113</v>
+        <v>-1.055639386177063</v>
       </c>
       <c r="GY2">
-        <v>1.491183042526245</v>
+        <v>0.8401951193809509</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PVT Bank.xlsx
+++ b/static/Models/Classification/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-2.82248592376709</v>
+        <v>-3.779273986816406</v>
       </c>
       <c r="C2">
-        <v>-3.750780820846558</v>
+        <v>-3.517253398895264</v>
       </c>
       <c r="D2">
-        <v>-16.61272621154785</v>
+        <v>-15.71621704101562</v>
       </c>
       <c r="E2">
-        <v>2.767709970474243</v>
+        <v>2.880367040634155</v>
       </c>
       <c r="F2">
-        <v>-1.239820241928101</v>
+        <v>-2.625179529190063</v>
       </c>
       <c r="G2">
-        <v>6.382772922515869</v>
+        <v>7.545304775238037</v>
       </c>
       <c r="H2">
-        <v>2.1586754322052</v>
+        <v>1.483087420463562</v>
       </c>
       <c r="I2">
-        <v>0.05868050828576088</v>
+        <v>0.5626654028892517</v>
       </c>
       <c r="J2">
-        <v>-4.803088665008545</v>
+        <v>-5.980864524841309</v>
       </c>
       <c r="K2">
-        <v>0.5021477937698364</v>
+        <v>-0.02061720378696918</v>
       </c>
       <c r="L2">
-        <v>-0.8712383508682251</v>
+        <v>-0.723986804485321</v>
       </c>
       <c r="M2">
-        <v>0.2099266350269318</v>
+        <v>-0.8212965726852417</v>
       </c>
       <c r="N2">
-        <v>0.008261717855930328</v>
+        <v>-1.150576233863831</v>
       </c>
       <c r="O2">
-        <v>7.263327598571777</v>
+        <v>8.283550262451172</v>
       </c>
       <c r="P2">
-        <v>1.370137691497803</v>
+        <v>2.270470142364502</v>
       </c>
       <c r="Q2">
-        <v>12.07583236694336</v>
+        <v>11.8935604095459</v>
       </c>
       <c r="R2">
-        <v>0.08651024103164673</v>
+        <v>-0.02387941814959049</v>
       </c>
       <c r="S2">
-        <v>-5.135995388031006</v>
+        <v>-4.978655338287354</v>
       </c>
       <c r="T2">
-        <v>7.225496292114258</v>
+        <v>8.384729385375977</v>
       </c>
       <c r="U2">
-        <v>-5.03466796875</v>
+        <v>-6.589287757873535</v>
       </c>
       <c r="V2">
-        <v>1.180633306503296</v>
+        <v>1.692627429962158</v>
       </c>
       <c r="W2">
-        <v>-0.03194034099578857</v>
+        <v>0.6543960571289062</v>
       </c>
       <c r="X2">
-        <v>2.261571884155273</v>
+        <v>1.588858842849731</v>
       </c>
       <c r="Y2">
-        <v>9.96131420135498</v>
+        <v>10.18024826049805</v>
       </c>
       <c r="Z2">
-        <v>-15.78891277313232</v>
+        <v>-14.29351711273193</v>
       </c>
       <c r="AA2">
-        <v>-1.711140155792236</v>
+        <v>-1.783159971237183</v>
       </c>
       <c r="AB2">
-        <v>-17.02031135559082</v>
+        <v>-18.08200836181641</v>
       </c>
       <c r="AC2">
-        <v>3.158506393432617</v>
+        <v>4.087404727935791</v>
       </c>
       <c r="AD2">
-        <v>-0.2371136397123337</v>
+        <v>0.5435152649879456</v>
       </c>
       <c r="AE2">
-        <v>-11.16928100585938</v>
+        <v>-11.95764923095703</v>
       </c>
       <c r="AF2">
-        <v>-0.2244935482740402</v>
+        <v>-1.608957171440125</v>
       </c>
       <c r="AG2">
-        <v>-9.641425132751465</v>
+        <v>-9.440702438354492</v>
       </c>
       <c r="AH2">
-        <v>-13.40077590942383</v>
+        <v>-14.70768928527832</v>
       </c>
       <c r="AI2">
-        <v>-0.885657787322998</v>
+        <v>-1.884115099906921</v>
       </c>
       <c r="AJ2">
-        <v>-3.122485160827637</v>
+        <v>-1.634330272674561</v>
       </c>
       <c r="AK2">
-        <v>0.8204557299613953</v>
+        <v>0.3857348561286926</v>
       </c>
       <c r="AL2">
-        <v>-1.149002909660339</v>
+        <v>-0.04210934042930603</v>
       </c>
       <c r="AM2">
-        <v>-0.7005286812782288</v>
+        <v>-1.236189961433411</v>
       </c>
       <c r="AN2">
-        <v>3.096086263656616</v>
+        <v>2.876246452331543</v>
       </c>
       <c r="AO2">
-        <v>-10.7702751159668</v>
+        <v>-10.78685665130615</v>
       </c>
       <c r="AP2">
-        <v>6.597562789916992</v>
+        <v>5.839913845062256</v>
       </c>
       <c r="AQ2">
-        <v>1.151066780090332</v>
+        <v>-0.3267535269260406</v>
       </c>
       <c r="AR2">
-        <v>-6.11220645904541</v>
+        <v>-6.473489761352539</v>
       </c>
       <c r="AS2">
-        <v>-11.82268619537354</v>
+        <v>-11.78041172027588</v>
       </c>
       <c r="AT2">
-        <v>-7.361270427703857</v>
+        <v>-8.1956787109375</v>
       </c>
       <c r="AU2">
-        <v>-10.66184234619141</v>
+        <v>-10.38306999206543</v>
       </c>
       <c r="AV2">
-        <v>0.3053263425827026</v>
+        <v>-0.9471803903579712</v>
       </c>
       <c r="AW2">
-        <v>-2.860939979553223</v>
+        <v>-3.590079784393311</v>
       </c>
       <c r="AX2">
-        <v>-2.775305509567261</v>
+        <v>-2.155535221099854</v>
       </c>
       <c r="AY2">
-        <v>-3.850445747375488</v>
+        <v>-2.920211791992188</v>
       </c>
       <c r="AZ2">
-        <v>-1.102446317672729</v>
+        <v>-2.614463090896606</v>
       </c>
       <c r="BA2">
-        <v>-5.02880859375</v>
+        <v>-3.641767024993896</v>
       </c>
       <c r="BB2">
-        <v>-11.51856136322021</v>
+        <v>-12.66618919372559</v>
       </c>
       <c r="BC2">
-        <v>1.740627408027649</v>
+        <v>1.293095111846924</v>
       </c>
       <c r="BD2">
-        <v>-0.8979752063751221</v>
+        <v>-0.17098069190979</v>
       </c>
       <c r="BE2">
-        <v>2.157722949981689</v>
+        <v>0.7107430696487427</v>
       </c>
       <c r="BF2">
-        <v>-8.449066162109375</v>
+        <v>-9.38880729675293</v>
       </c>
       <c r="BG2">
-        <v>0.5031880736351013</v>
+        <v>1.204026222229004</v>
       </c>
       <c r="BH2">
-        <v>1.603754997253418</v>
+        <v>-0.02416833490133286</v>
       </c>
       <c r="BI2">
-        <v>7.092117309570312</v>
+        <v>8.054021835327148</v>
       </c>
       <c r="BJ2">
-        <v>6.435878753662109</v>
+        <v>4.509357452392578</v>
       </c>
       <c r="BK2">
-        <v>0.1069576293230057</v>
+        <v>1.672318458557129</v>
       </c>
       <c r="BL2">
-        <v>5.592057228088379</v>
+        <v>4.312437057495117</v>
       </c>
       <c r="BM2">
-        <v>6.287857055664062</v>
+        <v>5.894096851348877</v>
       </c>
       <c r="BN2">
-        <v>-1.096232652664185</v>
+        <v>-1.206120848655701</v>
       </c>
       <c r="BO2">
-        <v>9.132364273071289</v>
+        <v>9.833034515380859</v>
       </c>
       <c r="BP2">
-        <v>-5.991603374481201</v>
+        <v>-4.294944286346436</v>
       </c>
       <c r="BQ2">
-        <v>-4.661420822143555</v>
+        <v>-3.847015857696533</v>
       </c>
       <c r="BR2">
-        <v>-0.8721425533294678</v>
+        <v>0.1783522516489029</v>
       </c>
       <c r="BS2">
-        <v>-1.263525485992432</v>
+        <v>-1.016884684562683</v>
       </c>
       <c r="BT2">
-        <v>-0.9438540935516357</v>
+        <v>-1.367280960083008</v>
       </c>
       <c r="BU2">
-        <v>1.131502151489258</v>
+        <v>1.35538125038147</v>
       </c>
       <c r="BV2">
-        <v>3.065186023712158</v>
+        <v>4.207344532012939</v>
       </c>
       <c r="BW2">
-        <v>1.207463979721069</v>
+        <v>1.3747318983078</v>
       </c>
       <c r="BX2">
-        <v>-4.85770845413208</v>
+        <v>-6.392035961151123</v>
       </c>
       <c r="BY2">
-        <v>0.5713772177696228</v>
+        <v>0.7885401844978333</v>
       </c>
       <c r="BZ2">
-        <v>-1.260843634605408</v>
+        <v>-1.660740852355957</v>
       </c>
       <c r="CA2">
-        <v>4.374191284179688</v>
+        <v>4.343952178955078</v>
       </c>
       <c r="CB2">
-        <v>-14.36690711975098</v>
+        <v>-14.5047550201416</v>
       </c>
       <c r="CC2">
-        <v>-1.181299686431885</v>
+        <v>-0.6206952333450317</v>
       </c>
       <c r="CD2">
-        <v>1.623615264892578</v>
+        <v>-0.2703258991241455</v>
       </c>
       <c r="CE2">
-        <v>-14.88517761230469</v>
+        <v>-15.73498630523682</v>
       </c>
       <c r="CF2">
-        <v>-1.728119730949402</v>
+        <v>-3.489407539367676</v>
       </c>
       <c r="CG2">
-        <v>-7.87382173538208</v>
+        <v>-8.464300155639648</v>
       </c>
       <c r="CH2">
-        <v>-12.16677665710449</v>
+        <v>-11.18418979644775</v>
       </c>
       <c r="CI2">
-        <v>-0.8611857295036316</v>
+        <v>-0.1337849646806717</v>
       </c>
       <c r="CJ2">
-        <v>-0.9819070100784302</v>
+        <v>1.05466890335083</v>
       </c>
       <c r="CK2">
-        <v>-0.9133506417274475</v>
+        <v>-1.239960193634033</v>
       </c>
       <c r="CL2">
-        <v>-1.776157855987549</v>
+        <v>-1.523648381233215</v>
       </c>
       <c r="CM2">
-        <v>-1.423898339271545</v>
+        <v>-1.316002488136292</v>
       </c>
       <c r="CN2">
-        <v>-2.086902856826782</v>
+        <v>0.1001448109745979</v>
       </c>
       <c r="CO2">
-        <v>-1.487128853797913</v>
+        <v>-0.5803200006484985</v>
       </c>
       <c r="CP2">
-        <v>2.825915336608887</v>
+        <v>3.782561063766479</v>
       </c>
       <c r="CQ2">
-        <v>6.992717742919922</v>
+        <v>7.554691314697266</v>
       </c>
       <c r="CR2">
-        <v>1.310901165008545</v>
+        <v>-0.8002574443817139</v>
       </c>
       <c r="CS2">
-        <v>-3.656654357910156</v>
+        <v>-2.88170313835144</v>
       </c>
       <c r="CT2">
-        <v>-0.5631859302520752</v>
+        <v>-0.1410764157772064</v>
       </c>
       <c r="CU2">
-        <v>0.9328272938728333</v>
+        <v>1.034469127655029</v>
       </c>
       <c r="CV2">
-        <v>-0.1287340521812439</v>
+        <v>0.3756591081619263</v>
       </c>
       <c r="CW2">
-        <v>-3.193333148956299</v>
+        <v>-3.872045278549194</v>
       </c>
       <c r="CX2">
-        <v>5.124902248382568</v>
+        <v>4.069395542144775</v>
       </c>
       <c r="CY2">
-        <v>3.530833959579468</v>
+        <v>2.806080102920532</v>
       </c>
       <c r="CZ2">
-        <v>2.118983745574951</v>
+        <v>1.465604662895203</v>
       </c>
       <c r="DA2">
-        <v>-2.942192316055298</v>
+        <v>-2.141474962234497</v>
       </c>
       <c r="DB2">
-        <v>-4.769284725189209</v>
+        <v>-5.707475662231445</v>
       </c>
       <c r="DC2">
-        <v>-0.2185452580451965</v>
+        <v>1.414590239524841</v>
       </c>
       <c r="DD2">
-        <v>-4.77577543258667</v>
+        <v>-6.258623123168945</v>
       </c>
       <c r="DE2">
-        <v>-0.8090339303016663</v>
+        <v>0.08296264708042145</v>
       </c>
       <c r="DF2">
-        <v>13.65415382385254</v>
+        <v>12.27358627319336</v>
       </c>
       <c r="DG2">
-        <v>-0.4193336367607117</v>
+        <v>-0.3872909843921661</v>
       </c>
       <c r="DH2">
-        <v>9.750979423522949</v>
+        <v>9.385034561157227</v>
       </c>
       <c r="DI2">
-        <v>2.326590061187744</v>
+        <v>3.308165550231934</v>
       </c>
       <c r="DJ2">
-        <v>-6.62701416015625</v>
+        <v>-7.606096267700195</v>
       </c>
       <c r="DK2">
-        <v>4.162189483642578</v>
+        <v>6.239386558532715</v>
       </c>
       <c r="DL2">
-        <v>7.488772869110107</v>
+        <v>7.161398887634277</v>
       </c>
       <c r="DM2">
-        <v>3.036414623260498</v>
+        <v>3.203428745269775</v>
       </c>
       <c r="DN2">
-        <v>-0.1989952921867371</v>
+        <v>0.5725817680358887</v>
       </c>
       <c r="DO2">
-        <v>-7.190643787384033</v>
+        <v>-7.785589218139648</v>
       </c>
       <c r="DP2">
-        <v>-0.7166799902915955</v>
+        <v>-1.705352783203125</v>
       </c>
       <c r="DQ2">
-        <v>-0.3042083978652954</v>
+        <v>0.6348971128463745</v>
       </c>
       <c r="DR2">
-        <v>1.923485994338989</v>
+        <v>1.320244550704956</v>
       </c>
       <c r="DS2">
-        <v>-0.4757143259048462</v>
+        <v>1.051727771759033</v>
       </c>
       <c r="DT2">
-        <v>9.942066192626953</v>
+        <v>9.437743186950684</v>
       </c>
       <c r="DU2">
-        <v>11.54990386962891</v>
+        <v>10.47064399719238</v>
       </c>
       <c r="DV2">
-        <v>-0.6248805522918701</v>
+        <v>0.1441254466772079</v>
       </c>
       <c r="DW2">
-        <v>-2.324398040771484</v>
+        <v>-0.6969397068023682</v>
       </c>
       <c r="DX2">
-        <v>0.1063412055373192</v>
+        <v>0.8257161378860474</v>
       </c>
       <c r="DY2">
-        <v>-12.2899694442749</v>
+        <v>-10.49921703338623</v>
       </c>
       <c r="DZ2">
-        <v>1.304629564285278</v>
+        <v>0.9699781537055969</v>
       </c>
       <c r="EA2">
-        <v>3.244232892990112</v>
+        <v>4.863044261932373</v>
       </c>
       <c r="EB2">
-        <v>-1.099680781364441</v>
+        <v>-0.3655498027801514</v>
       </c>
       <c r="EC2">
-        <v>1.659108877182007</v>
+        <v>1.980856895446777</v>
       </c>
       <c r="ED2">
-        <v>6.328318119049072</v>
+        <v>7.32176399230957</v>
       </c>
       <c r="EE2">
-        <v>0.481934666633606</v>
+        <v>1.16761302947998</v>
       </c>
       <c r="EF2">
-        <v>10.64659214019775</v>
+        <v>10.2275562286377</v>
       </c>
       <c r="EG2">
-        <v>-3.620965480804443</v>
+        <v>-4.319758892059326</v>
       </c>
       <c r="EH2">
-        <v>-19.07378387451172</v>
+        <v>-20.29392433166504</v>
       </c>
       <c r="EI2">
-        <v>2.5491623878479</v>
+        <v>2.585411548614502</v>
       </c>
       <c r="EJ2">
-        <v>2.402305126190186</v>
+        <v>3.101195812225342</v>
       </c>
       <c r="EK2">
-        <v>1.337146878242493</v>
+        <v>1.596761107444763</v>
       </c>
       <c r="EL2">
-        <v>-2.963549375534058</v>
+        <v>-2.087869644165039</v>
       </c>
       <c r="EM2">
-        <v>13.00872707366943</v>
+        <v>13.20746898651123</v>
       </c>
       <c r="EN2">
-        <v>1.544718742370605</v>
+        <v>0.7871516942977905</v>
       </c>
       <c r="EO2">
-        <v>-1.695659995079041</v>
+        <v>-1.245405435562134</v>
       </c>
       <c r="EP2">
-        <v>3.334625959396362</v>
+        <v>3.286685466766357</v>
       </c>
       <c r="EQ2">
-        <v>1.503817677497864</v>
+        <v>1.870819807052612</v>
       </c>
       <c r="ER2">
-        <v>-3.450333833694458</v>
+        <v>-2.927004098892212</v>
       </c>
       <c r="ES2">
-        <v>-6.809232234954834</v>
+        <v>-7.613132953643799</v>
       </c>
       <c r="ET2">
-        <v>4.432780742645264</v>
+        <v>5.321284294128418</v>
       </c>
       <c r="EU2">
-        <v>-9.385213851928711</v>
+        <v>-9.467538833618164</v>
       </c>
       <c r="EV2">
-        <v>-2.970224380493164</v>
+        <v>-2.4091796875</v>
       </c>
       <c r="EW2">
-        <v>1.526233434677124</v>
+        <v>3.124754667282104</v>
       </c>
       <c r="EX2">
-        <v>-2.822429418563843</v>
+        <v>-2.123993635177612</v>
       </c>
       <c r="EY2">
-        <v>-3.865172863006592</v>
+        <v>-3.260091543197632</v>
       </c>
       <c r="EZ2">
-        <v>-10.00416088104248</v>
+        <v>-8.457588195800781</v>
       </c>
       <c r="FA2">
-        <v>1.595523357391357</v>
+        <v>0.6921547651290894</v>
       </c>
       <c r="FB2">
-        <v>-0.02414740808308125</v>
+        <v>0.8541809916496277</v>
       </c>
       <c r="FC2">
-        <v>9.792060852050781</v>
+        <v>9.078068733215332</v>
       </c>
       <c r="FD2">
-        <v>0.4837201535701752</v>
+        <v>0.06984660029411316</v>
       </c>
       <c r="FE2">
-        <v>-2.856208086013794</v>
+        <v>-1.145798683166504</v>
       </c>
       <c r="FF2">
-        <v>2.591197729110718</v>
+        <v>2.177185535430908</v>
       </c>
       <c r="FG2">
-        <v>-13.82260799407959</v>
+        <v>-13.2272777557373</v>
       </c>
       <c r="FH2">
-        <v>-0.2641524970531464</v>
+        <v>-0.9568791389465332</v>
       </c>
       <c r="FI2">
-        <v>5.600177764892578</v>
+        <v>6.502776622772217</v>
       </c>
       <c r="FJ2">
-        <v>8.893886566162109</v>
+        <v>9.802343368530273</v>
       </c>
       <c r="FK2">
-        <v>0.5334150195121765</v>
+        <v>1.830971002578735</v>
       </c>
       <c r="FL2">
-        <v>-2.792220830917358</v>
+        <v>-3.571692228317261</v>
       </c>
       <c r="FM2">
-        <v>6.755305290222168</v>
+        <v>7.338797092437744</v>
       </c>
       <c r="FN2">
-        <v>10.14376640319824</v>
+        <v>8.75129508972168</v>
       </c>
       <c r="FO2">
-        <v>-0.5746540427207947</v>
+        <v>-0.9643308520317078</v>
       </c>
       <c r="FP2">
-        <v>1.732102990150452</v>
+        <v>2.678497076034546</v>
       </c>
       <c r="FQ2">
-        <v>-0.9838463664054871</v>
+        <v>-0.2514016628265381</v>
       </c>
       <c r="FR2">
-        <v>1.375062584877014</v>
+        <v>2.299219131469727</v>
       </c>
       <c r="FS2">
-        <v>-0.8442211747169495</v>
+        <v>-0.5096042156219482</v>
       </c>
       <c r="FT2">
-        <v>-1.898894309997559</v>
+        <v>-1.039921522140503</v>
       </c>
       <c r="FU2">
-        <v>6.680071353912354</v>
+        <v>7.70141077041626</v>
       </c>
       <c r="FV2">
-        <v>1.008676648139954</v>
+        <v>0.8917129635810852</v>
       </c>
       <c r="FW2">
-        <v>-1.16266918182373</v>
+        <v>-0.2269207239151001</v>
       </c>
       <c r="FX2">
-        <v>0.2617650628089905</v>
+        <v>0.8708378076553345</v>
       </c>
       <c r="FY2">
-        <v>-0.3249282240867615</v>
+        <v>-1.011665463447571</v>
       </c>
       <c r="FZ2">
-        <v>1.728858232498169</v>
+        <v>1.993306159973145</v>
       </c>
       <c r="GA2">
-        <v>5.677328109741211</v>
+        <v>4.705935478210449</v>
       </c>
       <c r="GB2">
-        <v>0.4900917410850525</v>
+        <v>0.2551712393760681</v>
       </c>
       <c r="GC2">
-        <v>-2.388630867004395</v>
+        <v>-1.708285450935364</v>
       </c>
       <c r="GD2">
-        <v>-0.3386757075786591</v>
+        <v>0.6217444539070129</v>
       </c>
       <c r="GE2">
-        <v>1.214915752410889</v>
+        <v>2.071902513504028</v>
       </c>
       <c r="GF2">
-        <v>1.346992373466492</v>
+        <v>0.1636313050985336</v>
       </c>
       <c r="GG2">
-        <v>-12.60761260986328</v>
+        <v>-12.23343849182129</v>
       </c>
       <c r="GH2">
-        <v>-1.752816438674927</v>
+        <v>-1.627859354019165</v>
       </c>
       <c r="GI2">
-        <v>0.1333079636096954</v>
+        <v>0.2898201048374176</v>
       </c>
       <c r="GJ2">
-        <v>0.51414954662323</v>
+        <v>2.117806434631348</v>
       </c>
       <c r="GK2">
-        <v>12.8682222366333</v>
+        <v>12.07253646850586</v>
       </c>
       <c r="GL2">
-        <v>-3.513765573501587</v>
+        <v>-1.739539504051208</v>
       </c>
       <c r="GM2">
-        <v>-9.467268943786621</v>
+        <v>-9.320000648498535</v>
       </c>
       <c r="GN2">
-        <v>-2.632064580917358</v>
+        <v>-3.578126907348633</v>
       </c>
       <c r="GO2">
-        <v>2.722569704055786</v>
+        <v>3.307276725769043</v>
       </c>
       <c r="GP2">
-        <v>-1.20470404624939</v>
+        <v>-0.8623728156089783</v>
       </c>
       <c r="GQ2">
-        <v>-0.9998410940170288</v>
+        <v>-1.797869682312012</v>
       </c>
       <c r="GR2">
-        <v>1.01506233215332</v>
+        <v>-0.6388234496116638</v>
       </c>
       <c r="GS2">
-        <v>-4.047878742218018</v>
+        <v>-2.90621018409729</v>
       </c>
       <c r="GT2">
-        <v>1.586872339248657</v>
+        <v>-0.3422429859638214</v>
       </c>
       <c r="GU2">
-        <v>-7.142956256866455</v>
+        <v>-7.935900688171387</v>
       </c>
       <c r="GV2">
-        <v>-0.1480348259210587</v>
+        <v>1.374004125595093</v>
       </c>
       <c r="GW2">
-        <v>0.7920420169830322</v>
+        <v>0.612779438495636</v>
       </c>
       <c r="GX2">
-        <v>-1.055639386177063</v>
+        <v>-0.3318172097206116</v>
       </c>
       <c r="GY2">
-        <v>0.8401951193809509</v>
+        <v>1.539754390716553</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PVT Bank.xlsx
+++ b/static/Models/Classification/Equation/PVT Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.534633159637451</v>
+        <v>-3.033333539962769</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.85215163230896</v>
+        <v>-3.119281530380249</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.35475540161133</v>
+        <v>-15.60952281951904</v>
       </c>
       <c r="E2" t="n">
-        <v>3.620621681213379</v>
+        <v>4.184453964233398</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.565636873245239</v>
+        <v>-1.733661890029907</v>
       </c>
       <c r="G2" t="n">
-        <v>8.221042633056641</v>
+        <v>7.540317535400391</v>
       </c>
       <c r="H2" t="n">
-        <v>2.280928134918213</v>
+        <v>1.616210222244263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3139099478721619</v>
+        <v>0.7449269890785217</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.248339176177979</v>
+        <v>-5.620727062225342</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3077929317951202</v>
+        <v>-0.5134612917900085</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.08198406547307968</v>
+        <v>-0.1656019240617752</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4206187725067139</v>
+        <v>-0.943011462688446</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8591744899749756</v>
+        <v>-0.655196487903595</v>
       </c>
       <c r="O2" t="n">
-        <v>8.200944900512695</v>
+        <v>8.499411582946777</v>
       </c>
       <c r="P2" t="n">
-        <v>2.659002542495728</v>
+        <v>3.12751293182373</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.33805847167969</v>
+        <v>11.72781276702881</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7375186085700989</v>
+        <v>-0.1719158738851547</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.738888740539551</v>
+        <v>-4.50375509262085</v>
       </c>
       <c r="T2" t="n">
-        <v>8.148048400878906</v>
+        <v>8.394123077392578</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.873785018920898</v>
+        <v>-6.639362335205078</v>
       </c>
       <c r="V2" t="n">
-        <v>1.253663301467896</v>
+        <v>1.575907945632935</v>
       </c>
       <c r="W2" t="n">
-        <v>1.786666035652161</v>
+        <v>1.636592268943787</v>
       </c>
       <c r="X2" t="n">
-        <v>2.30818772315979</v>
+        <v>3.458595752716064</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.55715370178223</v>
+        <v>9.952688217163086</v>
       </c>
       <c r="Z2" t="n">
-        <v>-14.64570236206055</v>
+        <v>-14.98509979248047</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.544849634170532</v>
+        <v>-2.079594850540161</v>
       </c>
       <c r="AB2" t="n">
-        <v>-18.50512886047363</v>
+        <v>-18.06042289733887</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.439603805541992</v>
+        <v>3.989057302474976</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2799893021583557</v>
+        <v>0.6236608624458313</v>
       </c>
       <c r="AE2" t="n">
-        <v>-12.15645027160645</v>
+        <v>-11.49265766143799</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.151290416717529</v>
+        <v>-0.4548197388648987</v>
       </c>
       <c r="AG2" t="n">
-        <v>-9.213878631591797</v>
+        <v>-9.197792053222656</v>
       </c>
       <c r="AH2" t="n">
-        <v>-14.91079711914062</v>
+        <v>-13.91079998016357</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.538371562957764</v>
+        <v>-2.089960813522339</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.652655482292175</v>
+        <v>-1.131658315658569</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9604724049568176</v>
+        <v>0.4538520872592926</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.5146625638008118</v>
+        <v>0.3879499137401581</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.618210196495056</v>
+        <v>-1.425225973129272</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.411729097366333</v>
+        <v>3.353825807571411</v>
       </c>
       <c r="AO2" t="n">
-        <v>-11.18007850646973</v>
+        <v>-11.53827571868896</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.104368686676025</v>
+        <v>5.01480770111084</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.3542931377887726</v>
+        <v>0.6311027407646179</v>
       </c>
       <c r="AR2" t="n">
-        <v>-5.976428985595703</v>
+        <v>-5.200584888458252</v>
       </c>
       <c r="AS2" t="n">
-        <v>-12.45278835296631</v>
+        <v>-11.38004016876221</v>
       </c>
       <c r="AT2" t="n">
-        <v>-8.298198699951172</v>
+        <v>-9.096013069152832</v>
       </c>
       <c r="AU2" t="n">
-        <v>-10.10978507995605</v>
+        <v>-10.56433963775635</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.8110871911048889</v>
+        <v>-1.206629395484924</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.342255115509033</v>
+        <v>-3.769261598587036</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.639978885650635</v>
+        <v>-1.408945202827454</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.372062921524048</v>
+        <v>-2.510371208190918</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.396857023239136</v>
+        <v>-2.006736278533936</v>
       </c>
       <c r="BA2" t="n">
-        <v>-3.845852613449097</v>
+        <v>-4.52241039276123</v>
       </c>
       <c r="BB2" t="n">
-        <v>-12.1424036026001</v>
+        <v>-12.37140655517578</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.617242336273193</v>
+        <v>2.136911153793335</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.4259548187255859</v>
+        <v>-0.09367644041776657</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.051644682884216</v>
+        <v>0.1839444935321808</v>
       </c>
       <c r="BF2" t="n">
-        <v>-8.983410835266113</v>
+        <v>-9.313831329345703</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9995710253715515</v>
+        <v>1.39654004573822</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.478370875120163</v>
+        <v>-0.09145240485668182</v>
       </c>
       <c r="BI2" t="n">
-        <v>7.860805034637451</v>
+        <v>7.993071556091309</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.132324695587158</v>
+        <v>4.424415111541748</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.02756941318512</v>
+        <v>1.6474609375</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.174938678741455</v>
+        <v>4.28399133682251</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.531415939331055</v>
+        <v>5.953126907348633</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.583430171012878</v>
+        <v>-1.610319018363953</v>
       </c>
       <c r="BO2" t="n">
-        <v>10.74330902099609</v>
+        <v>10.92630481719971</v>
       </c>
       <c r="BP2" t="n">
-        <v>-4.32342529296875</v>
+        <v>-3.721868753433228</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-3.462408304214478</v>
+        <v>-3.766809225082397</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.1602072268724442</v>
+        <v>-0.4548236131668091</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.371411800384521</v>
+        <v>-1.562770009040833</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.9144033789634705</v>
+        <v>-1.378909349441528</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.9928662776947021</v>
+        <v>1.234450697898865</v>
       </c>
       <c r="BV2" t="n">
-        <v>4.799155712127686</v>
+        <v>3.99687385559082</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.540542244911194</v>
+        <v>2.251202821731567</v>
       </c>
       <c r="BX2" t="n">
-        <v>-6.601771354675293</v>
+        <v>-5.971372127532959</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.5190187692642212</v>
+        <v>-0.06314047425985336</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.690790176391602</v>
+        <v>-1.084356546401978</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.617254734039307</v>
+        <v>4.162683486938477</v>
       </c>
       <c r="CB2" t="n">
-        <v>-14.87811279296875</v>
+        <v>-14.81838989257812</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.8126737475395203</v>
+        <v>-0.3573116660118103</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.446694403886795</v>
+        <v>-0.9588987231254578</v>
       </c>
       <c r="CE2" t="n">
-        <v>-16.26779365539551</v>
+        <v>-16.97026062011719</v>
       </c>
       <c r="CF2" t="n">
-        <v>-3.80414342880249</v>
+        <v>-3.366037368774414</v>
       </c>
       <c r="CG2" t="n">
-        <v>-8.104804992675781</v>
+        <v>-7.737714767456055</v>
       </c>
       <c r="CH2" t="n">
-        <v>-11.51620101928711</v>
+        <v>-11.11008930206299</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.3884740769863129</v>
+        <v>-0.1075796559453011</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.5871097445487976</v>
+        <v>0.8708219528198242</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.503838062286377</v>
+        <v>-1.177130937576294</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.766215682029724</v>
+        <v>-1.284122467041016</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.704347014427185</v>
+        <v>-1.324201703071594</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.6264008283615112</v>
+        <v>-0.1501289308071136</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.857931911945343</v>
+        <v>-0.6237189769744873</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.17146110534668</v>
+        <v>3.928488492965698</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.33283519744873</v>
+        <v>7.520142078399658</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.320018529891968</v>
+        <v>-0.8195704221725464</v>
       </c>
       <c r="CS2" t="n">
-        <v>-3.083221912384033</v>
+        <v>-2.782790660858154</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.3550583124160767</v>
+        <v>0.1201560646295547</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.7634047269821167</v>
+        <v>0.6415338516235352</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.8440066576004028</v>
+        <v>1.40874981880188</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.238090753555298</v>
+        <v>-3.960572719573975</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.445029735565186</v>
+        <v>3.662188529968262</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.023849964141846</v>
+        <v>2.551910877227783</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.839072108268738</v>
+        <v>1.336602330207825</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.621868014335632</v>
+        <v>-1.532313823699951</v>
       </c>
       <c r="DB2" t="n">
-        <v>-5.585561752319336</v>
+        <v>-5.254374027252197</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.007816076278687</v>
+        <v>1.253703832626343</v>
       </c>
       <c r="DD2" t="n">
-        <v>-6.54282283782959</v>
+        <v>-5.954282283782959</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.1413625180721283</v>
+        <v>0.131020799279213</v>
       </c>
       <c r="DF2" t="n">
-        <v>12.57392406463623</v>
+        <v>13.49966239929199</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.07651204615831375</v>
+        <v>0.1620256006717682</v>
       </c>
       <c r="DH2" t="n">
-        <v>9.495630264282227</v>
+        <v>10.37026405334473</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.979326009750366</v>
+        <v>2.781418800354004</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-6.814171314239502</v>
+        <v>-7.29691219329834</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.985123157501221</v>
+        <v>5.291765689849854</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.479272842407227</v>
+        <v>7.19495964050293</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.934472799301147</v>
+        <v>4.21349573135376</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.3610730469226837</v>
+        <v>0.7499551177024841</v>
       </c>
       <c r="DO2" t="n">
-        <v>-8.545304298400879</v>
+        <v>-8.210129737854004</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.379397392272949</v>
+        <v>-0.7544668316841125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.4128897786140442</v>
+        <v>0.6074488162994385</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.495312690734863</v>
+        <v>1.645792365074158</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.374266386032104</v>
+        <v>1.212507724761963</v>
       </c>
       <c r="DT2" t="n">
-        <v>9.091311454772949</v>
+        <v>9.050803184509277</v>
       </c>
       <c r="DU2" t="n">
-        <v>10.68930435180664</v>
+        <v>11.2940559387207</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.2155101746320724</v>
+        <v>0.4210160076618195</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.111364960670471</v>
+        <v>-0.2885293960571289</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.5722150206565857</v>
+        <v>0.9806779623031616</v>
       </c>
       <c r="DY2" t="n">
-        <v>-11.15953731536865</v>
+        <v>-10.60016250610352</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.5056091547012329</v>
+        <v>1.419601917266846</v>
       </c>
       <c r="EA2" t="n">
-        <v>5.512763500213623</v>
+        <v>4.822366237640381</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.6086929440498352</v>
+        <v>-0.2943339347839355</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.522288084030151</v>
+        <v>2.350462675094604</v>
       </c>
       <c r="ED2" t="n">
-        <v>7.094962120056152</v>
+        <v>7.34783411026001</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9214138984680176</v>
+        <v>1.22146737575531</v>
       </c>
       <c r="EF2" t="n">
-        <v>10.51802635192871</v>
+        <v>11.65039253234863</v>
       </c>
       <c r="EG2" t="n">
-        <v>-4.39390754699707</v>
+        <v>-4.161275386810303</v>
       </c>
       <c r="EH2" t="n">
-        <v>-20.57827758789062</v>
+        <v>-21.23684883117676</v>
       </c>
       <c r="EI2" t="n">
-        <v>3.425600051879883</v>
+        <v>4.068623542785645</v>
       </c>
       <c r="EJ2" t="n">
-        <v>3.477068662643433</v>
+        <v>3.67755126953125</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.332852005958557</v>
+        <v>1.791707515716553</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.341733694076538</v>
+        <v>-2.054914951324463</v>
       </c>
       <c r="EM2" t="n">
-        <v>13.89224052429199</v>
+        <v>14.43741512298584</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.9337614774703979</v>
+        <v>-0.0326797179877758</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.8597499132156372</v>
+        <v>-0.3999777436256409</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.629590511322021</v>
+        <v>4.715959072113037</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.702353715896606</v>
+        <v>1.769495010375977</v>
       </c>
       <c r="ER2" t="n">
-        <v>-2.602140426635742</v>
+        <v>-2.062751770019531</v>
       </c>
       <c r="ES2" t="n">
-        <v>-7.896680355072021</v>
+        <v>-6.849297523498535</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.719252586364746</v>
+        <v>6.019452571868896</v>
       </c>
       <c r="EU2" t="n">
-        <v>-9.219239234924316</v>
+        <v>-9.921731948852539</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.737271070480347</v>
+        <v>-1.977767705917358</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.455364465713501</v>
+        <v>3.141365051269531</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.204235553741455</v>
+        <v>-1.27744734287262</v>
       </c>
       <c r="EY2" t="n">
-        <v>-3.605536222457886</v>
+        <v>-3.254046201705933</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-9.123193740844727</v>
+        <v>-8.442469596862793</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.040197968482971</v>
+        <v>0.4733910858631134</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.6108222603797913</v>
+        <v>0.8320881724357605</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.301033020019531</v>
+        <v>10.056960105896</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.419642448425293</v>
+        <v>-0.1132434606552124</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.8394105434417725</v>
+        <v>-0.6514147520065308</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.582190752029419</v>
+        <v>1.677021503448486</v>
       </c>
       <c r="FG2" t="n">
-        <v>-13.52478504180908</v>
+        <v>-13.16719818115234</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.1947918236255646</v>
+        <v>-1.154837608337402</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.335350036621094</v>
+        <v>7.038480281829834</v>
       </c>
       <c r="FJ2" t="n">
-        <v>10.20038986206055</v>
+        <v>10.60820293426514</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.313217878341675</v>
+        <v>3.148897409439087</v>
       </c>
       <c r="FL2" t="n">
-        <v>-2.844184398651123</v>
+        <v>-2.16208815574646</v>
       </c>
       <c r="FM2" t="n">
-        <v>8.041504859924316</v>
+        <v>8.610967636108398</v>
       </c>
       <c r="FN2" t="n">
-        <v>9.145318984985352</v>
+        <v>10.16003704071045</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.233913064002991</v>
+        <v>-1.671319842338562</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.237429857254028</v>
+        <v>1.412251353263855</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.502139151096344</v>
+        <v>-0.2155255675315857</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.072217226028442</v>
+        <v>2.273596525192261</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.756646990776062</v>
+        <v>-0.2874715328216553</v>
       </c>
       <c r="FT2" t="n">
-        <v>-1.353822231292725</v>
+        <v>-1.100214600563049</v>
       </c>
       <c r="FU2" t="n">
-        <v>7.572349071502686</v>
+        <v>7.850436210632324</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.5902241468429565</v>
+        <v>0.7980389595031738</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.4685003459453583</v>
+        <v>-0.3231993913650513</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.255873680114746</v>
+        <v>0.6039235591888428</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.7787529230117798</v>
+        <v>-1.144234776496887</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.331173181533813</v>
+        <v>1.993380546569824</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.95932674407959</v>
+        <v>5.01004695892334</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9248402118682861</v>
+        <v>0.02293704263865948</v>
       </c>
       <c r="GC2" t="n">
-        <v>-1.809607267379761</v>
+        <v>-2.117269039154053</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.322063148021698</v>
+        <v>-0.0849577859044075</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.800177931785583</v>
+        <v>2.043510913848877</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0557909682393074</v>
+        <v>-0.9322291612625122</v>
       </c>
       <c r="GG2" t="n">
-        <v>-12.49677276611328</v>
+        <v>-12.72044086456299</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.987350463867188</v>
+        <v>-1.316076755523682</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.1871885806322098</v>
+        <v>0.9960759878158569</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1.851190090179443</v>
+        <v>2.224322080612183</v>
       </c>
       <c r="GK2" t="n">
-        <v>12.2656192779541</v>
+        <v>12.65587043762207</v>
       </c>
       <c r="GL2" t="n">
-        <v>-1.061160087585449</v>
+        <v>-1.998211622238159</v>
       </c>
       <c r="GM2" t="n">
-        <v>-8.861138343811035</v>
+        <v>-9.157366752624512</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.129024505615234</v>
+        <v>-4.725568294525146</v>
       </c>
       <c r="GO2" t="n">
-        <v>3.790755748748779</v>
+        <v>2.983071565628052</v>
       </c>
       <c r="GP2" t="n">
-        <v>-1.161733746528625</v>
+        <v>-0.782578706741333</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-1.305763244628906</v>
+        <v>-1.511645793914795</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.07637766748666763</v>
+        <v>-0.1642269492149353</v>
       </c>
       <c r="GS2" t="n">
-        <v>-2.369859457015991</v>
+        <v>-1.865570783615112</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.5007007122039795</v>
+        <v>-0.9045881628990173</v>
       </c>
       <c r="GU2" t="n">
-        <v>-7.717633247375488</v>
+        <v>-8.147824287414551</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.960476160049438</v>
+        <v>1.478098392486572</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.4010268449783325</v>
+        <v>1.193355917930603</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.6655619144439697</v>
+        <v>-0.3662636578083038</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.275965690612793</v>
+        <v>1.620635509490967</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PVT Bank.xlsx
+++ b/static/Models/Classification/Equation/PVT Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.033333539962769</v>
+        <v>-3.045320272445679</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.119281530380249</v>
+        <v>-2.703666925430298</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.60952281951904</v>
+        <v>-16.24534797668457</v>
       </c>
       <c r="E2" t="n">
-        <v>4.184453964233398</v>
+        <v>4.581795215606689</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.733661890029907</v>
+        <v>-1.87084698677063</v>
       </c>
       <c r="G2" t="n">
-        <v>7.540317535400391</v>
+        <v>7.266583442687988</v>
       </c>
       <c r="H2" t="n">
-        <v>1.616210222244263</v>
+        <v>1.98797619342804</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7449269890785217</v>
+        <v>0.5238289833068848</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.620727062225342</v>
+        <v>-5.987565994262695</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5134612917900085</v>
+        <v>0.1182264164090157</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1656019240617752</v>
+        <v>0.1819846481084824</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.943011462688446</v>
+        <v>-0.62607342004776</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.655196487903595</v>
+        <v>-1.139638423919678</v>
       </c>
       <c r="O2" t="n">
-        <v>8.499411582946777</v>
+        <v>8.704298973083496</v>
       </c>
       <c r="P2" t="n">
-        <v>3.12751293182373</v>
+        <v>3.014830827713013</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.72781276702881</v>
+        <v>11.85084629058838</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1719158738851547</v>
+        <v>0.4198999404907227</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.50375509262085</v>
+        <v>-4.25346851348877</v>
       </c>
       <c r="T2" t="n">
-        <v>8.394123077392578</v>
+        <v>8.260704040527344</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.639362335205078</v>
+        <v>-7.444372653961182</v>
       </c>
       <c r="V2" t="n">
-        <v>1.575907945632935</v>
+        <v>1.537291526794434</v>
       </c>
       <c r="W2" t="n">
-        <v>1.636592268943787</v>
+        <v>2.061821937561035</v>
       </c>
       <c r="X2" t="n">
-        <v>3.458595752716064</v>
+        <v>3.257493495941162</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.952688217163086</v>
+        <v>9.171996116638184</v>
       </c>
       <c r="Z2" t="n">
-        <v>-14.98509979248047</v>
+        <v>-15.76558399200439</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.079594850540161</v>
+        <v>-2.322065830230713</v>
       </c>
       <c r="AB2" t="n">
-        <v>-18.06042289733887</v>
+        <v>-18.29220962524414</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.989057302474976</v>
+        <v>3.912508487701416</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6236608624458313</v>
+        <v>0.4689691960811615</v>
       </c>
       <c r="AE2" t="n">
-        <v>-11.49265766143799</v>
+        <v>-11.73931694030762</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4548197388648987</v>
+        <v>-0.0778830349445343</v>
       </c>
       <c r="AG2" t="n">
-        <v>-9.197792053222656</v>
+        <v>-9.231552124023438</v>
       </c>
       <c r="AH2" t="n">
-        <v>-13.91079998016357</v>
+        <v>-14.34765434265137</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.089960813522339</v>
+        <v>-2.331405878067017</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.131658315658569</v>
+        <v>-0.8587526679039001</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4538520872592926</v>
+        <v>0.1345157325267792</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3879499137401581</v>
+        <v>0.5910701751708984</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.425225973129272</v>
+        <v>-1.713799357414246</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.353825807571411</v>
+        <v>4.113967418670654</v>
       </c>
       <c r="AO2" t="n">
-        <v>-11.53827571868896</v>
+        <v>-12.50379848480225</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.01480770111084</v>
+        <v>4.699933052062988</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6311027407646179</v>
+        <v>0.7055453062057495</v>
       </c>
       <c r="AR2" t="n">
-        <v>-5.200584888458252</v>
+        <v>-4.919528961181641</v>
       </c>
       <c r="AS2" t="n">
-        <v>-11.38004016876221</v>
+        <v>-10.73974514007568</v>
       </c>
       <c r="AT2" t="n">
-        <v>-9.096013069152832</v>
+        <v>-9.195492744445801</v>
       </c>
       <c r="AU2" t="n">
-        <v>-10.56433963775635</v>
+        <v>-10.33554172515869</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.206629395484924</v>
+        <v>-1.192101120948792</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.769261598587036</v>
+        <v>-3.490871429443359</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.408945202827454</v>
+        <v>-1.894887804985046</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.510371208190918</v>
+        <v>-2.58155369758606</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.006736278533936</v>
+        <v>-1.320439577102661</v>
       </c>
       <c r="BA2" t="n">
-        <v>-4.52241039276123</v>
+        <v>-4.622529029846191</v>
       </c>
       <c r="BB2" t="n">
-        <v>-12.37140655517578</v>
+        <v>-12.63446998596191</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.136911153793335</v>
+        <v>2.443912506103516</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.09367644041776657</v>
+        <v>-0.2862784266471863</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.1839444935321808</v>
+        <v>0.7452079653739929</v>
       </c>
       <c r="BF2" t="n">
-        <v>-9.313831329345703</v>
+        <v>-9.607869148254395</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.39654004573822</v>
+        <v>1.160670042037964</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.09145240485668182</v>
+        <v>-0.6183745265007019</v>
       </c>
       <c r="BI2" t="n">
-        <v>7.993071556091309</v>
+        <v>8.005910873413086</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.424415111541748</v>
+        <v>5.488242626190186</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.6474609375</v>
+        <v>1.766608238220215</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.28399133682251</v>
+        <v>4.315625190734863</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.953126907348633</v>
+        <v>6.113482475280762</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.610319018363953</v>
+        <v>-1.877278685569763</v>
       </c>
       <c r="BO2" t="n">
-        <v>10.92630481719971</v>
+        <v>11.29068946838379</v>
       </c>
       <c r="BP2" t="n">
-        <v>-3.721868753433228</v>
+        <v>-4.102881908416748</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-3.766809225082397</v>
+        <v>-4.366312980651855</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.4548236131668091</v>
+        <v>-0.7479550838470459</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.562770009040833</v>
+        <v>-1.27852988243103</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.378909349441528</v>
+        <v>-1.662157654762268</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.234450697898865</v>
+        <v>0.9881978034973145</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.99687385559082</v>
+        <v>4.577729225158691</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.251202821731567</v>
+        <v>1.744262099266052</v>
       </c>
       <c r="BX2" t="n">
-        <v>-5.971372127532959</v>
+        <v>-6.316786289215088</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.06314047425985336</v>
+        <v>0.4123520255088806</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.084356546401978</v>
+        <v>-1.449711561203003</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.162683486938477</v>
+        <v>4.313159942626953</v>
       </c>
       <c r="CB2" t="n">
-        <v>-14.81838989257812</v>
+        <v>-14.20283794403076</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.3573116660118103</v>
+        <v>-0.5959125757217407</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.9588987231254578</v>
+        <v>-0.889473021030426</v>
       </c>
       <c r="CE2" t="n">
-        <v>-16.97026062011719</v>
+        <v>-17.23168754577637</v>
       </c>
       <c r="CF2" t="n">
-        <v>-3.366037368774414</v>
+        <v>-3.912270784378052</v>
       </c>
       <c r="CG2" t="n">
-        <v>-7.737714767456055</v>
+        <v>-7.768030643463135</v>
       </c>
       <c r="CH2" t="n">
-        <v>-11.11008930206299</v>
+        <v>-10.45713329315186</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.1075796559453011</v>
+        <v>-0.3221092820167542</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.8708219528198242</v>
+        <v>1.071105360984802</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.177130937576294</v>
+        <v>-1.080903291702271</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.284122467041016</v>
+        <v>-1.543733239173889</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.324201703071594</v>
+        <v>-2.037500858306885</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.1501289308071136</v>
+        <v>0.03107891231775284</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.6237189769744873</v>
+        <v>-0.8722968101501465</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.928488492965698</v>
+        <v>4.187664985656738</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.520142078399658</v>
+        <v>7.594561100006104</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.8195704221725464</v>
+        <v>-0.4695248007774353</v>
       </c>
       <c r="CS2" t="n">
-        <v>-2.782790660858154</v>
+        <v>-2.992903470993042</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.1201560646295547</v>
+        <v>-0.1043255627155304</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.6415338516235352</v>
+        <v>1.35123872756958</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.40874981880188</v>
+        <v>1.077559590339661</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.960572719573975</v>
+        <v>-4.316353321075439</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.662188529968262</v>
+        <v>3.257963895797729</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.551910877227783</v>
+        <v>2.77812671661377</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.336602330207825</v>
+        <v>1.046753764152527</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.532313823699951</v>
+        <v>-1.405984163284302</v>
       </c>
       <c r="DB2" t="n">
-        <v>-5.254374027252197</v>
+        <v>-5.22493839263916</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.253703832626343</v>
+        <v>0.9162114262580872</v>
       </c>
       <c r="DD2" t="n">
-        <v>-5.954282283782959</v>
+        <v>-6.365620136260986</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.131020799279213</v>
+        <v>-0.06599899381399155</v>
       </c>
       <c r="DF2" t="n">
-        <v>13.49966239929199</v>
+        <v>12.55328273773193</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.1620256006717682</v>
+        <v>-0.04133228585124016</v>
       </c>
       <c r="DH2" t="n">
-        <v>10.37026405334473</v>
+        <v>9.780448913574219</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.781418800354004</v>
+        <v>2.220504522323608</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-7.29691219329834</v>
+        <v>-7.321822643280029</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.291765689849854</v>
+        <v>5.041284561157227</v>
       </c>
       <c r="DL2" t="n">
-        <v>7.19495964050293</v>
+        <v>7.608043193817139</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.21349573135376</v>
+        <v>3.942327737808228</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.7499551177024841</v>
+        <v>0.5369293689727783</v>
       </c>
       <c r="DO2" t="n">
-        <v>-8.210129737854004</v>
+        <v>-8.136197090148926</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.7544668316841125</v>
+        <v>-0.9397597312927246</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.6074488162994385</v>
+        <v>0.4032403826713562</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.645792365074158</v>
+        <v>1.055688500404358</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.212507724761963</v>
+        <v>0.8485169410705566</v>
       </c>
       <c r="DT2" t="n">
-        <v>9.050803184509277</v>
+        <v>8.450572967529297</v>
       </c>
       <c r="DU2" t="n">
-        <v>11.2940559387207</v>
+        <v>11.4071626663208</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.4210160076618195</v>
+        <v>-0.09166167676448822</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.2885293960571289</v>
+        <v>-0.5815138816833496</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9806779623031616</v>
+        <v>0.7779858708381653</v>
       </c>
       <c r="DY2" t="n">
-        <v>-10.60016250610352</v>
+        <v>-10.65533065795898</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.419601917266846</v>
+        <v>1.407018780708313</v>
       </c>
       <c r="EA2" t="n">
-        <v>4.822366237640381</v>
+        <v>4.405551433563232</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.2943339347839355</v>
+        <v>-0.4549421668052673</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.350462675094604</v>
+        <v>1.982955574989319</v>
       </c>
       <c r="ED2" t="n">
-        <v>7.34783411026001</v>
+        <v>7.201638698577881</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.22146737575531</v>
+        <v>1.041651368141174</v>
       </c>
       <c r="EF2" t="n">
-        <v>11.65039253234863</v>
+        <v>11.04585647583008</v>
       </c>
       <c r="EG2" t="n">
-        <v>-4.161275386810303</v>
+        <v>-4.49754810333252</v>
       </c>
       <c r="EH2" t="n">
-        <v>-21.23684883117676</v>
+        <v>-21.88271713256836</v>
       </c>
       <c r="EI2" t="n">
-        <v>4.068623542785645</v>
+        <v>3.636051177978516</v>
       </c>
       <c r="EJ2" t="n">
-        <v>3.67755126953125</v>
+        <v>3.941279649734497</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.791707515716553</v>
+        <v>1.521278023719788</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.054914951324463</v>
+        <v>-2.267242431640625</v>
       </c>
       <c r="EM2" t="n">
-        <v>14.43741512298584</v>
+        <v>14.63401222229004</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0326797179877758</v>
+        <v>-0.1345947533845901</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.3999777436256409</v>
+        <v>-0.3940076529979706</v>
       </c>
       <c r="EP2" t="n">
-        <v>4.715959072113037</v>
+        <v>4.119724273681641</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.769495010375977</v>
+        <v>1.098929643630981</v>
       </c>
       <c r="ER2" t="n">
-        <v>-2.062751770019531</v>
+        <v>-1.750054121017456</v>
       </c>
       <c r="ES2" t="n">
-        <v>-6.849297523498535</v>
+        <v>-7.00078821182251</v>
       </c>
       <c r="ET2" t="n">
-        <v>6.019452571868896</v>
+        <v>5.758809566497803</v>
       </c>
       <c r="EU2" t="n">
-        <v>-9.921731948852539</v>
+        <v>-10.76318836212158</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.977767705917358</v>
+        <v>-2.358677864074707</v>
       </c>
       <c r="EW2" t="n">
-        <v>3.141365051269531</v>
+        <v>2.575599670410156</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.27744734287262</v>
+        <v>-0.6594880223274231</v>
       </c>
       <c r="EY2" t="n">
-        <v>-3.254046201705933</v>
+        <v>-3.61237645149231</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-8.442469596862793</v>
+        <v>-9.090961456298828</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.4733910858631134</v>
+        <v>-0.307528018951416</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.8320881724357605</v>
+        <v>0.6384698152542114</v>
       </c>
       <c r="FC2" t="n">
-        <v>10.056960105896</v>
+        <v>9.307713508605957</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.1132434606552124</v>
+        <v>-0.3742676675319672</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.6514147520065308</v>
+        <v>-0.9939969778060913</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.677021503448486</v>
+        <v>1.200055360794067</v>
       </c>
       <c r="FG2" t="n">
-        <v>-13.16719818115234</v>
+        <v>-12.74563598632812</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.154837608337402</v>
+        <v>-1.688675165176392</v>
       </c>
       <c r="FI2" t="n">
-        <v>7.038480281829834</v>
+        <v>6.306459903717041</v>
       </c>
       <c r="FJ2" t="n">
-        <v>10.60820293426514</v>
+        <v>10.31617259979248</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.148897409439087</v>
+        <v>3.433101892471313</v>
       </c>
       <c r="FL2" t="n">
-        <v>-2.16208815574646</v>
+        <v>-2.242093324661255</v>
       </c>
       <c r="FM2" t="n">
-        <v>8.610967636108398</v>
+        <v>9.048464775085449</v>
       </c>
       <c r="FN2" t="n">
-        <v>10.16003704071045</v>
+        <v>9.505931854248047</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.671319842338562</v>
+        <v>-2.027456283569336</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.412251353263855</v>
+        <v>1.815215706825256</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.2155255675315857</v>
+        <v>-0.4359498023986816</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.273596525192261</v>
+        <v>2.073855400085449</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.2874715328216553</v>
+        <v>-0.5183240175247192</v>
       </c>
       <c r="FT2" t="n">
-        <v>-1.100214600563049</v>
+        <v>-1.391061305999756</v>
       </c>
       <c r="FU2" t="n">
-        <v>7.850436210632324</v>
+        <v>7.707805633544922</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.7980389595031738</v>
+        <v>0.8046989440917969</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.3231993913650513</v>
+        <v>-0.2138399481773376</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.6039235591888428</v>
+        <v>0.3012304604053497</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.144234776496887</v>
+        <v>-1.601371288299561</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.993380546569824</v>
+        <v>2.396540403366089</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.01004695892334</v>
+        <v>5.000406265258789</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02293704263865948</v>
+        <v>0.4953486919403076</v>
       </c>
       <c r="GC2" t="n">
-        <v>-2.117269039154053</v>
+        <v>-1.607647895812988</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.0849577859044075</v>
+        <v>0.04743953421711922</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.043510913848877</v>
+        <v>1.864229917526245</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.9322291612625122</v>
+        <v>-1.746139526367188</v>
       </c>
       <c r="GG2" t="n">
-        <v>-12.72044086456299</v>
+        <v>-13.00719738006592</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.316076755523682</v>
+        <v>-2.008746385574341</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.9960759878158569</v>
+        <v>0.7009678483009338</v>
       </c>
       <c r="GJ2" t="n">
-        <v>2.224322080612183</v>
+        <v>1.421125650405884</v>
       </c>
       <c r="GK2" t="n">
-        <v>12.65587043762207</v>
+        <v>12.96739101409912</v>
       </c>
       <c r="GL2" t="n">
-        <v>-1.998211622238159</v>
+        <v>-1.509898781776428</v>
       </c>
       <c r="GM2" t="n">
-        <v>-9.157366752624512</v>
+        <v>-8.896479606628418</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.725568294525146</v>
+        <v>-4.973271369934082</v>
       </c>
       <c r="GO2" t="n">
-        <v>2.983071565628052</v>
+        <v>2.530948877334595</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.782578706741333</v>
+        <v>-1.019430160522461</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-1.511645793914795</v>
+        <v>-0.8593770861625671</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.1642269492149353</v>
+        <v>0.4834054112434387</v>
       </c>
       <c r="GS2" t="n">
-        <v>-1.865570783615112</v>
+        <v>-2.375175714492798</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.9045881628990173</v>
+        <v>-0.2939958572387695</v>
       </c>
       <c r="GU2" t="n">
-        <v>-8.147824287414551</v>
+        <v>-7.865335941314697</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.478098392486572</v>
+        <v>1.822511672973633</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.193355917930603</v>
+        <v>0.8751449584960938</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.3662636578083038</v>
+        <v>-0.5390562415122986</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.620635509490967</v>
+        <v>1.448326230049133</v>
       </c>
     </row>
   </sheetData>
